--- a/excel/finished/焦化/CK67-终冷洗苯报表设计.xlsx
+++ b/excel/finished/焦化/CK67-终冷洗苯报表设计.xlsx
@@ -4,62 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="6.终冷洗苯" sheetId="1" r:id="rId1"/>
     <sheet name="_zhongleng_day_hour" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
   <si>
     <t xml:space="preserve"> 终 冷 洗 苯 减 温 减 压 干 燥 站 操 作 记 录</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
   </si>
   <si>
     <r>
@@ -589,10 +550,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
@@ -712,62 +674,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -784,11 +690,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -798,6 +740,26 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -816,6 +778,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -824,16 +794,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -872,7 +834,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,43 +864,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,7 +888,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,7 +942,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,25 +996,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,55 +1014,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1503,21 +1465,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1551,6 +1498,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1601,10 +1563,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1613,136 +1575,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -1807,7 +1769,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2369,6 +2331,19 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="_metadata"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2630,7 +2605,7 @@
   <dimension ref="B1:AL37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="P2" sqref="P2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2683,8 +2658,9 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="24" t="s">
-        <v>1</v>
+      <c r="P2" s="24" t="e">
+        <f>[1]_metadata!B1</f>
+        <v>#REF!</v>
       </c>
       <c r="Q2" s="24"/>
       <c r="R2" s="30"/>
@@ -2699,10 +2675,10 @@
     </row>
     <row r="3" customFormat="1" ht="14.1" customHeight="1" spans="2:38">
       <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>3</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -2724,7 +2700,7 @@
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
       <c r="W3" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
@@ -2737,7 +2713,7 @@
       <c r="AF3" s="9"/>
       <c r="AG3" s="37"/>
       <c r="AH3" s="38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI3" s="39"/>
       <c r="AJ3" s="39"/>
@@ -2747,7 +2723,7 @@
     <row r="4" customFormat="1" spans="2:38">
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -2757,7 +2733,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
@@ -2769,11 +2745,11 @@
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
       <c r="U4" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V4" s="11"/>
       <c r="W4" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
@@ -2783,7 +2759,7 @@
       <c r="AC4" s="13"/>
       <c r="AD4" s="13"/>
       <c r="AE4" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF4" s="12"/>
       <c r="AG4" s="41"/>
@@ -2796,85 +2772,85 @@
     <row r="5" customFormat="1" spans="2:38">
       <c r="B5" s="10"/>
       <c r="C5" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="H5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="I5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="K5" s="25" t="s">
         <v>17</v>
-      </c>
-      <c r="K5" s="25" t="s">
-        <v>18</v>
       </c>
       <c r="L5" s="25"/>
       <c r="M5" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N5" s="25"/>
       <c r="O5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="Q5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="R5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="S5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="T5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="U5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="U5" s="13" t="s">
+      <c r="V5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="V5" s="13" t="s">
+      <c r="W5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="W5" s="13" t="s">
+      <c r="X5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="X5" s="13" t="s">
+      <c r="Y5" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="Y5" s="13" t="s">
-        <v>29</v>
       </c>
       <c r="Z5" s="13"/>
       <c r="AA5" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB5" s="13"/>
       <c r="AC5" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AD5" s="13"/>
       <c r="AE5" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF5" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG5" s="45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AH5" s="42"/>
       <c r="AI5" s="43"/>
@@ -2885,10 +2861,10 @@
     <row r="6" customFormat="1" spans="2:38">
       <c r="B6" s="10"/>
       <c r="C6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="14"/>
@@ -2897,16 +2873,16 @@
       <c r="I6" s="14"/>
       <c r="J6" s="13"/>
       <c r="K6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="12" t="s">
-        <v>34</v>
-      </c>
       <c r="M6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
@@ -2919,136 +2895,136 @@
       <c r="W6" s="13"/>
       <c r="X6" s="13"/>
       <c r="Y6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="Z6" s="14" t="s">
-        <v>34</v>
-      </c>
       <c r="AA6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AB6" s="14" t="s">
-        <v>34</v>
-      </c>
       <c r="AC6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD6" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="AD6" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="AE6" s="13"/>
       <c r="AF6" s="13"/>
       <c r="AG6" s="45"/>
       <c r="AH6" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AI6" s="47"/>
       <c r="AJ6" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AL6" s="49" t="s">
         <v>37</v>
-      </c>
-      <c r="AL6" s="49" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="19.5" customHeight="1" spans="2:38">
       <c r="B7" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AC7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AF7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AG7" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="AG7" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="AH7" s="50"/>
       <c r="AI7" s="51"/>
@@ -3185,10 +3161,10 @@
         <v/>
       </c>
       <c r="AH8" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI8" s="53" t="s">
         <v>71</v>
-      </c>
-      <c r="AI8" s="53" t="s">
-        <v>72</v>
       </c>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
@@ -3324,7 +3300,7 @@
       </c>
       <c r="AH9" s="42"/>
       <c r="AI9" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
@@ -3459,10 +3435,10 @@
         <v/>
       </c>
       <c r="AH10" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI10" s="53" t="s">
         <v>74</v>
-      </c>
-      <c r="AI10" s="53" t="s">
-        <v>75</v>
       </c>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
@@ -3598,7 +3574,7 @@
       </c>
       <c r="AH11" s="55"/>
       <c r="AI11" s="53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
@@ -3734,7 +3710,7 @@
       </c>
       <c r="AH12" s="55"/>
       <c r="AI12" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
@@ -3870,7 +3846,7 @@
       </c>
       <c r="AH13" s="55"/>
       <c r="AI13" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
@@ -4006,7 +3982,7 @@
       </c>
       <c r="AH14" s="57"/>
       <c r="AI14" s="53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
@@ -4141,10 +4117,10 @@
         <v/>
       </c>
       <c r="AH15" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI15" s="53" t="s">
         <v>80</v>
-      </c>
-      <c r="AI15" s="53" t="s">
-        <v>81</v>
       </c>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
@@ -4280,7 +4256,7 @@
       </c>
       <c r="AH16" s="42"/>
       <c r="AI16" s="53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
@@ -4415,10 +4391,10 @@
         <v/>
       </c>
       <c r="AH17" s="58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI17" s="53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
@@ -4554,7 +4530,7 @@
       </c>
       <c r="AH18" s="58"/>
       <c r="AI18" s="53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
@@ -6304,7 +6280,7 @@
     </row>
     <row r="32" customFormat="1" spans="2:38">
       <c r="B32" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -6345,7 +6321,7 @@
     </row>
     <row r="33" customFormat="1" spans="2:38">
       <c r="B33" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -6386,7 +6362,7 @@
     </row>
     <row r="34" customFormat="1" spans="2:38">
       <c r="B34" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -6427,7 +6403,7 @@
     </row>
     <row r="35" customFormat="1" ht="14.25" spans="2:38">
       <c r="B35" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -6468,7 +6444,7 @@
     </row>
     <row r="36" customFormat="1" ht="78.95" customHeight="1" spans="2:38">
       <c r="B36" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
@@ -6480,7 +6456,7 @@
       <c r="J36" s="21"/>
       <c r="K36" s="26"/>
       <c r="L36" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M36" s="27"/>
       <c r="N36" s="27"/>
@@ -6492,7 +6468,7 @@
       <c r="T36" s="27"/>
       <c r="U36" s="31"/>
       <c r="V36" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W36" s="27"/>
       <c r="X36" s="27"/>
@@ -6513,7 +6489,7 @@
     </row>
     <row r="37" ht="16.5" spans="2:38">
       <c r="B37" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
@@ -6525,7 +6501,7 @@
       <c r="J37" s="23"/>
       <c r="K37" s="28"/>
       <c r="L37" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="29"/>
       <c r="N37" s="29"/>
@@ -6537,7 +6513,7 @@
       <c r="T37" s="29"/>
       <c r="U37" s="32"/>
       <c r="V37" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="29"/>
       <c r="X37" s="29"/>
@@ -6631,97 +6607,97 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:31">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/excel/finished/焦化/CK67-终冷洗苯报表设计.xlsx
+++ b/excel/finished/焦化/CK67-终冷洗苯报表设计.xlsx
@@ -4,15 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="6.终冷洗苯" sheetId="1" r:id="rId1"/>
     <sheet name="_zhongleng_day_hour" sheetId="2" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
+    <sheet name="_analysis_day_shift" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -553,9 +552,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -653,12 +652,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -667,24 +674,30 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,30 +725,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -750,10 +765,26 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -762,40 +793,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,85 +833,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,6 +863,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -948,73 +1001,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1462,6 +1461,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1469,17 +1479,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1503,6 +1513,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1513,32 +1538,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1563,10 +1562,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1575,136 +1574,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -2331,19 +2330,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="_metadata"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2605,7 +2591,7 @@
   <dimension ref="B1:AL37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:Q2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2658,9 +2644,9 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="24" t="e">
-        <f>[1]_metadata!B1</f>
-        <v>#REF!</v>
+      <c r="P2" s="24">
+        <f>_metadata!B1</f>
+        <v>0</v>
       </c>
       <c r="Q2" s="24"/>
       <c r="R2" s="30"/>
@@ -6704,4 +6690,36 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/excel/finished/焦化/CK67-终冷洗苯报表设计.xlsx
+++ b/excel/finished/焦化/CK67-终冷洗苯报表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="6.终冷洗苯" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="91">
   <si>
     <t xml:space="preserve"> 终 冷 洗 苯 减 温 减 压 干 燥 站 操 作 记 录</t>
   </si>
@@ -36,7 +36,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">      </t>
     </r>
@@ -290,7 +290,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>g/m</t>
     </r>
@@ -300,7 +300,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>3</t>
     </r>
@@ -320,7 +320,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>g/m</t>
     </r>
@@ -330,7 +330,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>3</t>
     </r>
@@ -353,7 +353,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>g/ml</t>
     </r>
@@ -367,7 +367,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>300</t>
     </r>
@@ -416,7 +416,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -433,7 +433,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -443,7 +443,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -468,7 +468,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -478,7 +478,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -503,7 +503,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -513,7 +513,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">                          </t>
     </r>
@@ -530,7 +530,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">                              </t>
     </r>
@@ -548,15 +548,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,7 +570,7 @@
       <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -629,7 +625,7 @@
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -648,156 +644,19 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -810,7 +669,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -823,202 +682,22 @@
       <name val="等线"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="43">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1458,263 +1137,52 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1724,87 +1192,95 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="10" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1815,55 +1291,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1883,63 +1315,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1950,7 +1350,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -1964,7 +1364,7 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
@@ -2156,7 +1556,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Line 2"/>
         <xdr:cNvSpPr>
@@ -2202,7 +1602,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Line 3"/>
         <xdr:cNvSpPr>
@@ -2248,7 +1648,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Line 5"/>
         <xdr:cNvSpPr>
@@ -2294,7 +1694,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Line 6"/>
         <xdr:cNvSpPr>
@@ -2582,341 +1982,341 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AL37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="P2" sqref="P2:Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="34" max="34" width="5.875" customWidth="1"/>
     <col min="35" max="35" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="22.5" spans="2:26">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="2:38" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
     </row>
-    <row r="2" customFormat="1" ht="16.5" spans="2:26">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="24">
-        <f>_metadata!B1</f>
+    <row r="2" spans="2:38" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="68">
+        <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
     </row>
-    <row r="3" customFormat="1" ht="14.1" customHeight="1" spans="2:38">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="2:38" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="38" t="s">
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="40"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="54"/>
     </row>
-    <row r="4" customFormat="1" spans="2:38">
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
+    <row r="4" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="B4" s="44"/>
+      <c r="C4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11" t="s">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="11"/>
-      <c r="W4" s="13" t="s">
+      <c r="V4" s="23"/>
+      <c r="W4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="12" t="s">
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="44"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="56"/>
     </row>
-    <row r="5" customFormat="1" spans="2:38">
-      <c r="B5" s="10"/>
-      <c r="C5" s="12" t="s">
+    <row r="5" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="B5" s="44"/>
+      <c r="C5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25" t="s">
+      <c r="L5" s="27"/>
+      <c r="M5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="25"/>
-      <c r="O5" s="13" t="s">
+      <c r="N5" s="27"/>
+      <c r="O5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="S5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="T5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="V5" s="13" t="s">
+      <c r="V5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="W5" s="13" t="s">
+      <c r="W5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="X5" s="13" t="s">
+      <c r="X5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="Y5" s="13" t="s">
+      <c r="Y5" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13" t="s">
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13" t="s">
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13" t="s">
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="AF5" s="13" t="s">
+      <c r="AF5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AG5" s="45" t="s">
+      <c r="AG5" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="43"/>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="43"/>
-      <c r="AL5" s="44"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="55"/>
+      <c r="AL5" s="56"/>
     </row>
-    <row r="6" customFormat="1" spans="2:38">
-      <c r="B6" s="10"/>
-      <c r="C6" s="12" t="s">
+    <row r="6" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="B6" s="44"/>
+      <c r="C6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="12" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="14" t="s">
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Z6" s="14" t="s">
+      <c r="Z6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AA6" s="14" t="s">
+      <c r="AA6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AB6" s="14" t="s">
+      <c r="AB6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AC6" s="12" t="s">
+      <c r="AC6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AD6" s="12" t="s">
+      <c r="AD6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="45"/>
-      <c r="AH6" s="46" t="s">
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="48" t="s">
+      <c r="AI6" s="29"/>
+      <c r="AJ6" s="11" t="s">
         <v>35</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL6" s="49" t="s">
+      <c r="AL6" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="19.5" customHeight="1" spans="2:38">
-      <c r="B7" s="15" t="s">
+    <row r="7" spans="2:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3012,14 +2412,14 @@
       <c r="AG7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AH7" s="50"/>
-      <c r="AI7" s="51"/>
-      <c r="AJ7" s="51"/>
-      <c r="AK7" s="51"/>
-      <c r="AL7" s="52"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="31"/>
+      <c r="AJ7" s="31"/>
+      <c r="AK7" s="31"/>
+      <c r="AL7" s="32"/>
     </row>
-    <row r="8" customFormat="1" spans="2:38">
-      <c r="B8" s="16">
+    <row r="8" spans="2:38" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B8" s="7">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="str">
@@ -3146,19 +2546,19 @@
         <f>IF(_zhongleng_day_hour!AE2="","",_zhongleng_day_hour!AE2)</f>
         <v/>
       </c>
-      <c r="AH8" s="42" t="s">
+      <c r="AH8" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="AI8" s="53" t="s">
+      <c r="AI8" s="13" t="s">
         <v>71</v>
       </c>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
-      <c r="AL8" s="49"/>
+      <c r="AL8" s="12"/>
     </row>
-    <row r="9" customFormat="1" spans="2:38">
-      <c r="B9" s="16">
-        <v>0.0416666666666667</v>
+    <row r="9" spans="2:38" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B9" s="7">
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A3="","",_zhongleng_day_hour!A3)</f>
@@ -3284,17 +2684,17 @@
         <f>IF(_zhongleng_day_hour!AE3="","",_zhongleng_day_hour!AE3)</f>
         <v/>
       </c>
-      <c r="AH9" s="42"/>
-      <c r="AI9" s="53" t="s">
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
-      <c r="AL9" s="49"/>
+      <c r="AL9" s="12"/>
     </row>
-    <row r="10" customFormat="1" ht="14.1" customHeight="1" spans="2:38">
-      <c r="B10" s="16">
-        <v>0.0833333333333333</v>
+    <row r="10" spans="2:38" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="7">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A4="","",_zhongleng_day_hour!A4)</f>
@@ -3420,18 +2820,18 @@
         <f>IF(_zhongleng_day_hour!AE4="","",_zhongleng_day_hour!AE4)</f>
         <v/>
       </c>
-      <c r="AH10" s="54" t="s">
+      <c r="AH10" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="AI10" s="53" t="s">
+      <c r="AI10" s="13" t="s">
         <v>74</v>
       </c>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
-      <c r="AL10" s="49"/>
+      <c r="AL10" s="12"/>
     </row>
-    <row r="11" customFormat="1" spans="2:38">
-      <c r="B11" s="16">
+    <row r="11" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="B11" s="7">
         <v>0.125</v>
       </c>
       <c r="C11" s="1" t="str">
@@ -3558,17 +2958,17 @@
         <f>IF(_zhongleng_day_hour!AE5="","",_zhongleng_day_hour!AE5)</f>
         <v/>
       </c>
-      <c r="AH11" s="55"/>
-      <c r="AI11" s="53" t="s">
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="13" t="s">
         <v>75</v>
       </c>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
-      <c r="AL11" s="49"/>
+      <c r="AL11" s="12"/>
     </row>
-    <row r="12" customFormat="1" spans="2:38">
-      <c r="B12" s="16">
-        <v>0.166666666666667</v>
+    <row r="12" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="B12" s="7">
+        <v>0.16666666666666699</v>
       </c>
       <c r="C12" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A6="","",_zhongleng_day_hour!A6)</f>
@@ -3694,17 +3094,17 @@
         <f>IF(_zhongleng_day_hour!AE6="","",_zhongleng_day_hour!AE6)</f>
         <v/>
       </c>
-      <c r="AH12" s="55"/>
-      <c r="AI12" s="56" t="s">
+      <c r="AH12" s="49"/>
+      <c r="AI12" s="14" t="s">
         <v>76</v>
       </c>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
-      <c r="AL12" s="49"/>
+      <c r="AL12" s="12"/>
     </row>
-    <row r="13" customFormat="1" spans="2:38">
-      <c r="B13" s="16">
-        <v>0.208333333333333</v>
+    <row r="13" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="B13" s="7">
+        <v>0.20833333333333301</v>
       </c>
       <c r="C13" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A7="","",_zhongleng_day_hour!A7)</f>
@@ -3830,16 +3230,16 @@
         <f>IF(_zhongleng_day_hour!AE7="","",_zhongleng_day_hour!AE7)</f>
         <v/>
       </c>
-      <c r="AH13" s="55"/>
-      <c r="AI13" s="53" t="s">
+      <c r="AH13" s="49"/>
+      <c r="AI13" s="13" t="s">
         <v>77</v>
       </c>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
-      <c r="AL13" s="49"/>
+      <c r="AL13" s="12"/>
     </row>
-    <row r="14" customFormat="1" spans="2:38">
-      <c r="B14" s="16">
+    <row r="14" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="B14" s="7">
         <v>0.25</v>
       </c>
       <c r="C14" s="1" t="str">
@@ -3966,17 +3366,17 @@
         <f>IF(_zhongleng_day_hour!AE8="","",_zhongleng_day_hour!AE8)</f>
         <v/>
       </c>
-      <c r="AH14" s="57"/>
-      <c r="AI14" s="53" t="s">
+      <c r="AH14" s="50"/>
+      <c r="AI14" s="13" t="s">
         <v>78</v>
       </c>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
-      <c r="AL14" s="49"/>
+      <c r="AL14" s="12"/>
     </row>
-    <row r="15" customFormat="1" spans="2:38">
-      <c r="B15" s="16">
-        <v>0.291666666666667</v>
+    <row r="15" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="B15" s="7">
+        <v>0.29166666666666702</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A9="","",_zhongleng_day_hour!A9)</f>
@@ -4102,19 +3502,19 @@
         <f>IF(_zhongleng_day_hour!AE9="","",_zhongleng_day_hour!AE9)</f>
         <v/>
       </c>
-      <c r="AH15" s="42" t="s">
+      <c r="AH15" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="AI15" s="53" t="s">
+      <c r="AI15" s="13" t="s">
         <v>80</v>
       </c>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
-      <c r="AL15" s="49"/>
+      <c r="AL15" s="12"/>
     </row>
-    <row r="16" customFormat="1" spans="2:38">
-      <c r="B16" s="16">
-        <v>0.333333333333333</v>
+    <row r="16" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="B16" s="7">
+        <v>0.33333333333333298</v>
       </c>
       <c r="C16" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A10="","",_zhongleng_day_hour!A10)</f>
@@ -4240,16 +3640,16 @@
         <f>IF(_zhongleng_day_hour!AE10="","",_zhongleng_day_hour!AE10)</f>
         <v/>
       </c>
-      <c r="AH16" s="42"/>
-      <c r="AI16" s="53" t="s">
+      <c r="AH16" s="47"/>
+      <c r="AI16" s="13" t="s">
         <v>81</v>
       </c>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
-      <c r="AL16" s="49"/>
+      <c r="AL16" s="12"/>
     </row>
-    <row r="17" customFormat="1" spans="2:38">
-      <c r="B17" s="16">
+    <row r="17" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="B17" s="7">
         <v>0.375</v>
       </c>
       <c r="C17" s="1" t="str">
@@ -4376,19 +3776,19 @@
         <f>IF(_zhongleng_day_hour!AE11="","",_zhongleng_day_hour!AE11)</f>
         <v/>
       </c>
-      <c r="AH17" s="58" t="s">
+      <c r="AH17" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="AI17" s="53" t="s">
+      <c r="AI17" s="13" t="s">
         <v>80</v>
       </c>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
-      <c r="AL17" s="49"/>
+      <c r="AL17" s="12"/>
     </row>
-    <row r="18" customFormat="1" spans="2:38">
-      <c r="B18" s="16">
-        <v>0.416666666666666</v>
+    <row r="18" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="B18" s="7">
+        <v>0.41666666666666602</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A12="","",_zhongleng_day_hour!A12)</f>
@@ -4514,17 +3914,17 @@
         <f>IF(_zhongleng_day_hour!AE12="","",_zhongleng_day_hour!AE12)</f>
         <v/>
       </c>
-      <c r="AH18" s="58"/>
-      <c r="AI18" s="53" t="s">
+      <c r="AH18" s="51"/>
+      <c r="AI18" s="13" t="s">
         <v>81</v>
       </c>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
-      <c r="AL18" s="49"/>
+      <c r="AL18" s="12"/>
     </row>
-    <row r="19" customFormat="1" spans="2:38">
-      <c r="B19" s="16">
-        <v>0.458333333333333</v>
+    <row r="19" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="B19" s="7">
+        <v>0.45833333333333298</v>
       </c>
       <c r="C19" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A13="","",_zhongleng_day_hour!A13)</f>
@@ -4650,14 +4050,14 @@
         <f>IF(_zhongleng_day_hour!AE13="","",_zhongleng_day_hour!AE13)</f>
         <v/>
       </c>
-      <c r="AH19" s="59"/>
-      <c r="AI19" s="60"/>
-      <c r="AJ19" s="60"/>
-      <c r="AK19" s="60"/>
-      <c r="AL19" s="61"/>
+      <c r="AH19" s="57"/>
+      <c r="AI19" s="58"/>
+      <c r="AJ19" s="58"/>
+      <c r="AK19" s="58"/>
+      <c r="AL19" s="59"/>
     </row>
-    <row r="20" customFormat="1" spans="2:38">
-      <c r="B20" s="16">
+    <row r="20" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="B20" s="7">
         <v>0.5</v>
       </c>
       <c r="C20" s="1" t="str">
@@ -4784,15 +4184,15 @@
         <f>IF(_zhongleng_day_hour!AE14="","",_zhongleng_day_hour!AE14)</f>
         <v/>
       </c>
-      <c r="AH20" s="62"/>
-      <c r="AI20" s="63"/>
-      <c r="AJ20" s="63"/>
-      <c r="AK20" s="63"/>
-      <c r="AL20" s="64"/>
+      <c r="AH20" s="60"/>
+      <c r="AI20" s="61"/>
+      <c r="AJ20" s="61"/>
+      <c r="AK20" s="61"/>
+      <c r="AL20" s="62"/>
     </row>
-    <row r="21" customFormat="1" spans="2:38">
-      <c r="B21" s="16">
-        <v>0.541666666666666</v>
+    <row r="21" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="B21" s="7">
+        <v>0.54166666666666596</v>
       </c>
       <c r="C21" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A15="","",_zhongleng_day_hour!A15)</f>
@@ -4918,15 +4318,15 @@
         <f>IF(_zhongleng_day_hour!AE15="","",_zhongleng_day_hour!AE15)</f>
         <v/>
       </c>
-      <c r="AH21" s="62"/>
-      <c r="AI21" s="63"/>
-      <c r="AJ21" s="63"/>
-      <c r="AK21" s="63"/>
-      <c r="AL21" s="64"/>
+      <c r="AH21" s="60"/>
+      <c r="AI21" s="61"/>
+      <c r="AJ21" s="61"/>
+      <c r="AK21" s="61"/>
+      <c r="AL21" s="62"/>
     </row>
-    <row r="22" customFormat="1" spans="2:38">
-      <c r="B22" s="16">
-        <v>0.583333333333333</v>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="B22" s="7">
+        <v>0.58333333333333304</v>
       </c>
       <c r="C22" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A16="","",_zhongleng_day_hour!A16)</f>
@@ -5052,14 +4452,14 @@
         <f>IF(_zhongleng_day_hour!AE16="","",_zhongleng_day_hour!AE16)</f>
         <v/>
       </c>
-      <c r="AH22" s="62"/>
-      <c r="AI22" s="63"/>
-      <c r="AJ22" s="63"/>
-      <c r="AK22" s="63"/>
-      <c r="AL22" s="64"/>
+      <c r="AH22" s="60"/>
+      <c r="AI22" s="61"/>
+      <c r="AJ22" s="61"/>
+      <c r="AK22" s="61"/>
+      <c r="AL22" s="62"/>
     </row>
-    <row r="23" customFormat="1" spans="2:38">
-      <c r="B23" s="16">
+    <row r="23" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="B23" s="7">
         <v>0.625</v>
       </c>
       <c r="C23" s="1" t="str">
@@ -5186,15 +4586,15 @@
         <f>IF(_zhongleng_day_hour!AE17="","",_zhongleng_day_hour!AE17)</f>
         <v/>
       </c>
-      <c r="AH23" s="62"/>
-      <c r="AI23" s="63"/>
-      <c r="AJ23" s="63"/>
-      <c r="AK23" s="63"/>
-      <c r="AL23" s="64"/>
+      <c r="AH23" s="60"/>
+      <c r="AI23" s="61"/>
+      <c r="AJ23" s="61"/>
+      <c r="AK23" s="61"/>
+      <c r="AL23" s="62"/>
     </row>
-    <row r="24" customFormat="1" spans="2:38">
-      <c r="B24" s="16">
-        <v>0.666666666666667</v>
+    <row r="24" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="B24" s="7">
+        <v>0.66666666666666696</v>
       </c>
       <c r="C24" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A18="","",_zhongleng_day_hour!A18)</f>
@@ -5320,15 +4720,15 @@
         <f>IF(_zhongleng_day_hour!AE18="","",_zhongleng_day_hour!AE18)</f>
         <v/>
       </c>
-      <c r="AH24" s="62"/>
-      <c r="AI24" s="63"/>
-      <c r="AJ24" s="63"/>
-      <c r="AK24" s="63"/>
-      <c r="AL24" s="64"/>
+      <c r="AH24" s="60"/>
+      <c r="AI24" s="61"/>
+      <c r="AJ24" s="61"/>
+      <c r="AK24" s="61"/>
+      <c r="AL24" s="62"/>
     </row>
-    <row r="25" customFormat="1" spans="2:38">
-      <c r="B25" s="16">
-        <v>0.708333333333333</v>
+    <row r="25" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="B25" s="7">
+        <v>0.70833333333333304</v>
       </c>
       <c r="C25" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A19="","",_zhongleng_day_hour!A19)</f>
@@ -5454,14 +4854,14 @@
         <f>IF(_zhongleng_day_hour!AE19="","",_zhongleng_day_hour!AE19)</f>
         <v/>
       </c>
-      <c r="AH25" s="62"/>
-      <c r="AI25" s="63"/>
-      <c r="AJ25" s="63"/>
-      <c r="AK25" s="63"/>
-      <c r="AL25" s="64"/>
+      <c r="AH25" s="60"/>
+      <c r="AI25" s="61"/>
+      <c r="AJ25" s="61"/>
+      <c r="AK25" s="61"/>
+      <c r="AL25" s="62"/>
     </row>
-    <row r="26" customFormat="1" spans="2:38">
-      <c r="B26" s="16">
+    <row r="26" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="B26" s="7">
         <v>0.75</v>
       </c>
       <c r="C26" s="1" t="str">
@@ -5588,15 +4988,15 @@
         <f>IF(_zhongleng_day_hour!AE20="","",_zhongleng_day_hour!AE20)</f>
         <v/>
       </c>
-      <c r="AH26" s="62"/>
-      <c r="AI26" s="63"/>
-      <c r="AJ26" s="63"/>
-      <c r="AK26" s="63"/>
-      <c r="AL26" s="64"/>
+      <c r="AH26" s="60"/>
+      <c r="AI26" s="61"/>
+      <c r="AJ26" s="61"/>
+      <c r="AK26" s="61"/>
+      <c r="AL26" s="62"/>
     </row>
-    <row r="27" customFormat="1" spans="2:38">
-      <c r="B27" s="16">
-        <v>0.791666666666667</v>
+    <row r="27" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="B27" s="7">
+        <v>0.79166666666666696</v>
       </c>
       <c r="C27" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A21="","",_zhongleng_day_hour!A21)</f>
@@ -5722,15 +5122,15 @@
         <f>IF(_zhongleng_day_hour!AE21="","",_zhongleng_day_hour!AE21)</f>
         <v/>
       </c>
-      <c r="AH27" s="62"/>
-      <c r="AI27" s="63"/>
-      <c r="AJ27" s="63"/>
-      <c r="AK27" s="63"/>
-      <c r="AL27" s="64"/>
+      <c r="AH27" s="60"/>
+      <c r="AI27" s="61"/>
+      <c r="AJ27" s="61"/>
+      <c r="AK27" s="61"/>
+      <c r="AL27" s="62"/>
     </row>
-    <row r="28" customFormat="1" spans="2:38">
-      <c r="B28" s="16">
-        <v>0.833333333333333</v>
+    <row r="28" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="B28" s="7">
+        <v>0.83333333333333304</v>
       </c>
       <c r="C28" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A22="","",_zhongleng_day_hour!A22)</f>
@@ -5856,14 +5256,14 @@
         <f>IF(_zhongleng_day_hour!AE22="","",_zhongleng_day_hour!AE22)</f>
         <v/>
       </c>
-      <c r="AH28" s="62"/>
-      <c r="AI28" s="63"/>
-      <c r="AJ28" s="63"/>
-      <c r="AK28" s="63"/>
-      <c r="AL28" s="64"/>
+      <c r="AH28" s="60"/>
+      <c r="AI28" s="61"/>
+      <c r="AJ28" s="61"/>
+      <c r="AK28" s="61"/>
+      <c r="AL28" s="62"/>
     </row>
-    <row r="29" customFormat="1" spans="2:38">
-      <c r="B29" s="16">
+    <row r="29" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="B29" s="7">
         <v>0.875</v>
       </c>
       <c r="C29" s="1" t="str">
@@ -5990,15 +5390,15 @@
         <f>IF(_zhongleng_day_hour!AE23="","",_zhongleng_day_hour!AE23)</f>
         <v/>
       </c>
-      <c r="AH29" s="62"/>
-      <c r="AI29" s="63"/>
-      <c r="AJ29" s="63"/>
-      <c r="AK29" s="63"/>
-      <c r="AL29" s="64"/>
+      <c r="AH29" s="60"/>
+      <c r="AI29" s="61"/>
+      <c r="AJ29" s="61"/>
+      <c r="AK29" s="61"/>
+      <c r="AL29" s="62"/>
     </row>
-    <row r="30" customFormat="1" spans="2:38">
-      <c r="B30" s="16">
-        <v>0.916666666666667</v>
+    <row r="30" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="B30" s="7">
+        <v>0.91666666666666696</v>
       </c>
       <c r="C30" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A24="","",_zhongleng_day_hour!A24)</f>
@@ -6124,15 +5524,15 @@
         <f>IF(_zhongleng_day_hour!AE24="","",_zhongleng_day_hour!AE24)</f>
         <v/>
       </c>
-      <c r="AH30" s="62"/>
-      <c r="AI30" s="63"/>
-      <c r="AJ30" s="63"/>
-      <c r="AK30" s="63"/>
-      <c r="AL30" s="64"/>
+      <c r="AH30" s="60"/>
+      <c r="AI30" s="61"/>
+      <c r="AJ30" s="61"/>
+      <c r="AK30" s="61"/>
+      <c r="AL30" s="62"/>
     </row>
-    <row r="31" customFormat="1" spans="2:38">
-      <c r="B31" s="16">
-        <v>0.958333333333333</v>
+    <row r="31" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="B31" s="7">
+        <v>0.95833333333333304</v>
       </c>
       <c r="C31" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A25="","",_zhongleng_day_hour!A25)</f>
@@ -6258,14 +5658,14 @@
         <f>IF(_zhongleng_day_hour!AE25="","",_zhongleng_day_hour!AE25)</f>
         <v/>
       </c>
-      <c r="AH31" s="62"/>
-      <c r="AI31" s="63"/>
-      <c r="AJ31" s="63"/>
-      <c r="AK31" s="63"/>
-      <c r="AL31" s="64"/>
+      <c r="AH31" s="60"/>
+      <c r="AI31" s="61"/>
+      <c r="AJ31" s="61"/>
+      <c r="AK31" s="61"/>
+      <c r="AL31" s="62"/>
     </row>
-    <row r="32" customFormat="1" spans="2:38">
-      <c r="B32" s="17" t="s">
+    <row r="32" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="B32" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="1"/>
@@ -6299,14 +5699,14 @@
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
       <c r="AG32" s="2"/>
-      <c r="AH32" s="62"/>
-      <c r="AI32" s="63"/>
-      <c r="AJ32" s="63"/>
-      <c r="AK32" s="63"/>
-      <c r="AL32" s="64"/>
+      <c r="AH32" s="60"/>
+      <c r="AI32" s="61"/>
+      <c r="AJ32" s="61"/>
+      <c r="AK32" s="61"/>
+      <c r="AL32" s="62"/>
     </row>
-    <row r="33" customFormat="1" spans="2:38">
-      <c r="B33" s="17" t="s">
+    <row r="33" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="B33" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C33" s="1"/>
@@ -6340,14 +5740,14 @@
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
       <c r="AG33" s="2"/>
-      <c r="AH33" s="62"/>
-      <c r="AI33" s="63"/>
-      <c r="AJ33" s="63"/>
-      <c r="AK33" s="63"/>
-      <c r="AL33" s="64"/>
+      <c r="AH33" s="60"/>
+      <c r="AI33" s="61"/>
+      <c r="AJ33" s="61"/>
+      <c r="AK33" s="61"/>
+      <c r="AL33" s="62"/>
     </row>
-    <row r="34" customFormat="1" spans="2:38">
-      <c r="B34" s="17" t="s">
+    <row r="34" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="B34" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C34" s="1"/>
@@ -6381,168 +5781,149 @@
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
       <c r="AG34" s="2"/>
-      <c r="AH34" s="62"/>
-      <c r="AI34" s="63"/>
-      <c r="AJ34" s="63"/>
-      <c r="AK34" s="63"/>
-      <c r="AL34" s="64"/>
+      <c r="AH34" s="60"/>
+      <c r="AI34" s="61"/>
+      <c r="AJ34" s="61"/>
+      <c r="AK34" s="61"/>
+      <c r="AL34" s="62"/>
     </row>
-    <row r="35" customFormat="1" ht="14.25" spans="2:38">
-      <c r="B35" s="18" t="s">
+    <row r="35" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="B35" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="19"/>
-      <c r="AA35" s="19"/>
-      <c r="AB35" s="19"/>
-      <c r="AC35" s="19"/>
-      <c r="AD35" s="19"/>
-      <c r="AE35" s="19"/>
-      <c r="AF35" s="19"/>
-      <c r="AG35" s="65"/>
-      <c r="AH35" s="62"/>
-      <c r="AI35" s="63"/>
-      <c r="AJ35" s="63"/>
-      <c r="AK35" s="63"/>
-      <c r="AL35" s="64"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="15"/>
+      <c r="AH35" s="60"/>
+      <c r="AI35" s="61"/>
+      <c r="AJ35" s="61"/>
+      <c r="AK35" s="61"/>
+      <c r="AL35" s="62"/>
     </row>
-    <row r="36" customFormat="1" ht="78.95" customHeight="1" spans="2:38">
-      <c r="B36" s="20" t="s">
+    <row r="36" spans="2:38" ht="78.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="20" t="s">
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="20" t="s">
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="27"/>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="27"/>
-      <c r="AC36" s="33"/>
-      <c r="AD36" s="34"/>
-      <c r="AE36" s="34"/>
-      <c r="AF36" s="34"/>
-      <c r="AG36" s="34"/>
-      <c r="AH36" s="63"/>
-      <c r="AI36" s="63"/>
-      <c r="AJ36" s="63"/>
-      <c r="AK36" s="63"/>
-      <c r="AL36" s="64"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="36"/>
+      <c r="AC36" s="65"/>
+      <c r="AD36" s="66"/>
+      <c r="AE36" s="66"/>
+      <c r="AF36" s="66"/>
+      <c r="AG36" s="66"/>
+      <c r="AH36" s="61"/>
+      <c r="AI36" s="61"/>
+      <c r="AJ36" s="61"/>
+      <c r="AK36" s="61"/>
+      <c r="AL36" s="62"/>
     </row>
-    <row r="37" ht="16.5" spans="2:38">
-      <c r="B37" s="22" t="s">
+    <row r="37" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="22" t="s">
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="32"/>
-      <c r="V37" s="22" t="s">
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29"/>
-      <c r="Y37" s="29"/>
-      <c r="Z37" s="29"/>
-      <c r="AA37" s="29"/>
-      <c r="AB37" s="29"/>
-      <c r="AC37" s="35"/>
-      <c r="AD37" s="36"/>
-      <c r="AE37" s="36"/>
-      <c r="AF37" s="36"/>
-      <c r="AG37" s="36"/>
-      <c r="AH37" s="36"/>
-      <c r="AI37" s="36"/>
-      <c r="AJ37" s="36"/>
-      <c r="AK37" s="36"/>
-      <c r="AL37" s="66"/>
+      <c r="W37" s="41"/>
+      <c r="X37" s="41"/>
+      <c r="Y37" s="41"/>
+      <c r="Z37" s="41"/>
+      <c r="AA37" s="41"/>
+      <c r="AB37" s="41"/>
+      <c r="AC37" s="67"/>
+      <c r="AD37" s="63"/>
+      <c r="AE37" s="63"/>
+      <c r="AF37" s="63"/>
+      <c r="AG37" s="63"/>
+      <c r="AH37" s="63"/>
+      <c r="AI37" s="63"/>
+      <c r="AJ37" s="63"/>
+      <c r="AK37" s="63"/>
+      <c r="AL37" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B1:Z1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:Z2"/>
-    <mergeCell ref="C3:V3"/>
-    <mergeCell ref="W3:AG3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:AD4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AH7:AL7"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="L36:U36"/>
-    <mergeCell ref="V36:AB36"/>
+    <mergeCell ref="AH17:AH18"/>
+    <mergeCell ref="AH3:AL5"/>
+    <mergeCell ref="AH19:AL37"/>
+    <mergeCell ref="AC36:AG37"/>
     <mergeCell ref="B37:K37"/>
     <mergeCell ref="L37:U37"/>
     <mergeCell ref="V37:AB37"/>
@@ -6559,6 +5940,12 @@
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AH7:AL7"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="L36:U36"/>
+    <mergeCell ref="V36:AB36"/>
     <mergeCell ref="U5:U6"/>
     <mergeCell ref="V5:V6"/>
     <mergeCell ref="W5:W6"/>
@@ -6569,29 +5956,42 @@
     <mergeCell ref="AH8:AH9"/>
     <mergeCell ref="AH10:AH14"/>
     <mergeCell ref="AH15:AH16"/>
-    <mergeCell ref="AH17:AH18"/>
-    <mergeCell ref="AH3:AL5"/>
-    <mergeCell ref="AH19:AL37"/>
-    <mergeCell ref="AC36:AG37"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="C3:V3"/>
+    <mergeCell ref="W3:AG3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:AD4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="B1:Z1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:Z2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -6687,39 +6087,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-终冷洗苯报表设计.xlsx
+++ b/excel/finished/焦化/CK67-终冷洗苯报表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="6.终冷洗苯" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
   <si>
     <t xml:space="preserve"> 终 冷 洗 苯 减 温 减 压 干 燥 站 操 作 记 录</t>
   </si>
@@ -36,7 +36,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">      </t>
     </r>
@@ -290,7 +290,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>g/m</t>
     </r>
@@ -300,7 +300,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
@@ -320,7 +320,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>g/m</t>
     </r>
@@ -330,7 +330,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
@@ -353,7 +353,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>g/ml</t>
     </r>
@@ -367,7 +367,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>300</t>
     </r>
@@ -416,7 +416,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -433,7 +433,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -443,7 +443,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -468,7 +468,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -478,7 +478,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -503,7 +503,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -513,7 +513,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                          </t>
     </r>
@@ -530,7 +530,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                              </t>
     </r>
@@ -548,11 +548,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,7 +573,7 @@
       <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -625,7 +628,12 @@
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -644,11 +652,148 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -669,7 +814,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -682,22 +827,202 @@
       <name val="等线"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -880,6 +1205,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1137,52 +1471,263 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="10" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1192,26 +1737,110 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1220,86 +1849,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1309,37 +1887,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1350,7 +1963,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -1364,14 +1977,14 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13166725" y="5938520"/>
+          <a:off x="13166725" y="5976620"/>
           <a:ext cx="4516120" cy="134620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1556,7 +2169,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Line 2"/>
         <xdr:cNvSpPr>
@@ -1565,7 +2178,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6572250" y="674370"/>
+          <a:off x="6572250" y="712470"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1602,7 +2215,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Line 3"/>
         <xdr:cNvSpPr>
@@ -1611,7 +2224,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6572250" y="1017270"/>
+          <a:off x="6572250" y="1055370"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1648,7 +2261,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Line 5"/>
         <xdr:cNvSpPr>
@@ -1657,7 +2270,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6572250" y="674370"/>
+          <a:off x="6572250" y="712470"/>
           <a:ext cx="0" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1694,7 +2307,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Line 6"/>
         <xdr:cNvSpPr>
@@ -1703,7 +2316,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6572250" y="674370"/>
+          <a:off x="6572250" y="712470"/>
           <a:ext cx="0" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1982,341 +2595,341 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:AL37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P2" sqref="P2:Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="34" max="34" width="5.875" customWidth="1"/>
     <col min="35" max="35" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:38" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B1" s="16" t="s">
+    <row r="1" ht="22.5" spans="2:26">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="2:38" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="68">
+    <row r="2" ht="19.5" spans="2:26">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="24">
         <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
     </row>
-    <row r="3" spans="2:38" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="43" t="s">
+    <row r="3" ht="14.1" customHeight="1" spans="2:38">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="52" t="s">
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="54"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="40"/>
     </row>
-    <row r="4" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B4" s="44"/>
-      <c r="C4" s="23" t="s">
+    <row r="4" spans="2:38">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23" t="s">
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="23"/>
-      <c r="W4" s="24" t="s">
+      <c r="V4" s="11"/>
+      <c r="W4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="25" t="s">
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="55"/>
-      <c r="AJ4" s="55"/>
-      <c r="AK4" s="55"/>
-      <c r="AL4" s="56"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="44"/>
     </row>
-    <row r="5" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B5" s="44"/>
-      <c r="C5" s="25" t="s">
+    <row r="5" spans="2:38">
+      <c r="B5" s="10"/>
+      <c r="C5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="24" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27" t="s">
+      <c r="L5" s="25"/>
+      <c r="M5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="24" t="s">
+      <c r="N5" s="25"/>
+      <c r="O5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="P5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="45" t="s">
+      <c r="Q5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="R5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="S5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="24" t="s">
+      <c r="T5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="U5" s="24" t="s">
+      <c r="U5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="V5" s="24" t="s">
+      <c r="V5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="W5" s="24" t="s">
+      <c r="W5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="X5" s="24" t="s">
+      <c r="X5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="Y5" s="24" t="s">
+      <c r="Y5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24" t="s">
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24" t="s">
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24" t="s">
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="AF5" s="24" t="s">
+      <c r="AF5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AG5" s="46" t="s">
+      <c r="AG5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="55"/>
-      <c r="AJ5" s="55"/>
-      <c r="AK5" s="55"/>
-      <c r="AL5" s="56"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="43"/>
+      <c r="AL5" s="44"/>
     </row>
-    <row r="6" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B6" s="44"/>
-      <c r="C6" s="4" t="s">
+    <row r="6" spans="2:38">
+      <c r="B6" s="10"/>
+      <c r="C6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="4" t="s">
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="5" t="s">
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z6" s="5" t="s">
+      <c r="Z6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AA6" s="5" t="s">
+      <c r="AA6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AB6" s="5" t="s">
+      <c r="AB6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AC6" s="4" t="s">
+      <c r="AC6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AD6" s="4" t="s">
+      <c r="AD6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="28" t="s">
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AI6" s="29"/>
-      <c r="AJ6" s="11" t="s">
+      <c r="AI6" s="47"/>
+      <c r="AJ6" s="48" t="s">
         <v>35</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL6" s="12" t="s">
+      <c r="AL6" s="49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="6" t="s">
+    <row r="7" ht="19.5" customHeight="1" spans="2:38">
+      <c r="B7" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2412,14 +3025,14 @@
       <c r="AG7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AH7" s="30"/>
-      <c r="AI7" s="31"/>
-      <c r="AJ7" s="31"/>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="32"/>
+      <c r="AH7" s="50"/>
+      <c r="AI7" s="51"/>
+      <c r="AJ7" s="51"/>
+      <c r="AK7" s="51"/>
+      <c r="AL7" s="52"/>
     </row>
-    <row r="8" spans="2:38" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B8" s="7">
+    <row r="8" spans="2:38">
+      <c r="B8" s="16">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="str">
@@ -2546,19 +3159,19 @@
         <f>IF(_zhongleng_day_hour!AE2="","",_zhongleng_day_hour!AE2)</f>
         <v/>
       </c>
-      <c r="AH8" s="47" t="s">
+      <c r="AH8" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="AI8" s="13" t="s">
+      <c r="AI8" s="53" t="s">
         <v>71</v>
       </c>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
-      <c r="AL8" s="12"/>
+      <c r="AL8" s="49"/>
     </row>
-    <row r="9" spans="2:38" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B9" s="7">
-        <v>4.1666666666666699E-2</v>
+    <row r="9" spans="2:38">
+      <c r="B9" s="16">
+        <v>0.0416666666666667</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A3="","",_zhongleng_day_hour!A3)</f>
@@ -2684,17 +3297,17 @@
         <f>IF(_zhongleng_day_hour!AE3="","",_zhongleng_day_hour!AE3)</f>
         <v/>
       </c>
-      <c r="AH9" s="47"/>
-      <c r="AI9" s="13" t="s">
+      <c r="AH9" s="42"/>
+      <c r="AI9" s="53" t="s">
         <v>72</v>
       </c>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
-      <c r="AL9" s="12"/>
+      <c r="AL9" s="49"/>
     </row>
-    <row r="10" spans="2:38" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="7">
-        <v>8.3333333333333301E-2</v>
+    <row r="10" ht="14.1" customHeight="1" spans="2:38">
+      <c r="B10" s="16">
+        <v>0.0833333333333333</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A4="","",_zhongleng_day_hour!A4)</f>
@@ -2820,18 +3433,18 @@
         <f>IF(_zhongleng_day_hour!AE4="","",_zhongleng_day_hour!AE4)</f>
         <v/>
       </c>
-      <c r="AH10" s="48" t="s">
+      <c r="AH10" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="AI10" s="13" t="s">
+      <c r="AI10" s="53" t="s">
         <v>74</v>
       </c>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
-      <c r="AL10" s="12"/>
+      <c r="AL10" s="49"/>
     </row>
-    <row r="11" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B11" s="7">
+    <row r="11" spans="2:38">
+      <c r="B11" s="16">
         <v>0.125</v>
       </c>
       <c r="C11" s="1" t="str">
@@ -2958,17 +3571,17 @@
         <f>IF(_zhongleng_day_hour!AE5="","",_zhongleng_day_hour!AE5)</f>
         <v/>
       </c>
-      <c r="AH11" s="49"/>
-      <c r="AI11" s="13" t="s">
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="53" t="s">
         <v>75</v>
       </c>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
-      <c r="AL11" s="12"/>
+      <c r="AL11" s="49"/>
     </row>
-    <row r="12" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B12" s="7">
-        <v>0.16666666666666699</v>
+    <row r="12" spans="2:38">
+      <c r="B12" s="16">
+        <v>0.166666666666667</v>
       </c>
       <c r="C12" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A6="","",_zhongleng_day_hour!A6)</f>
@@ -3094,17 +3707,17 @@
         <f>IF(_zhongleng_day_hour!AE6="","",_zhongleng_day_hour!AE6)</f>
         <v/>
       </c>
-      <c r="AH12" s="49"/>
-      <c r="AI12" s="14" t="s">
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="56" t="s">
         <v>76</v>
       </c>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
-      <c r="AL12" s="12"/>
+      <c r="AL12" s="49"/>
     </row>
-    <row r="13" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B13" s="7">
-        <v>0.20833333333333301</v>
+    <row r="13" spans="2:38">
+      <c r="B13" s="16">
+        <v>0.208333333333333</v>
       </c>
       <c r="C13" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A7="","",_zhongleng_day_hour!A7)</f>
@@ -3230,16 +3843,16 @@
         <f>IF(_zhongleng_day_hour!AE7="","",_zhongleng_day_hour!AE7)</f>
         <v/>
       </c>
-      <c r="AH13" s="49"/>
-      <c r="AI13" s="13" t="s">
+      <c r="AH13" s="55"/>
+      <c r="AI13" s="53" t="s">
         <v>77</v>
       </c>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
-      <c r="AL13" s="12"/>
+      <c r="AL13" s="49"/>
     </row>
-    <row r="14" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B14" s="7">
+    <row r="14" spans="2:38">
+      <c r="B14" s="16">
         <v>0.25</v>
       </c>
       <c r="C14" s="1" t="str">
@@ -3366,17 +3979,17 @@
         <f>IF(_zhongleng_day_hour!AE8="","",_zhongleng_day_hour!AE8)</f>
         <v/>
       </c>
-      <c r="AH14" s="50"/>
-      <c r="AI14" s="13" t="s">
+      <c r="AH14" s="57"/>
+      <c r="AI14" s="53" t="s">
         <v>78</v>
       </c>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
-      <c r="AL14" s="12"/>
+      <c r="AL14" s="49"/>
     </row>
-    <row r="15" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B15" s="7">
-        <v>0.29166666666666702</v>
+    <row r="15" spans="2:38">
+      <c r="B15" s="16">
+        <v>0.291666666666667</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A9="","",_zhongleng_day_hour!A9)</f>
@@ -3502,19 +4115,19 @@
         <f>IF(_zhongleng_day_hour!AE9="","",_zhongleng_day_hour!AE9)</f>
         <v/>
       </c>
-      <c r="AH15" s="47" t="s">
+      <c r="AH15" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="AI15" s="13" t="s">
+      <c r="AI15" s="53" t="s">
         <v>80</v>
       </c>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
-      <c r="AL15" s="12"/>
+      <c r="AL15" s="49"/>
     </row>
-    <row r="16" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B16" s="7">
-        <v>0.33333333333333298</v>
+    <row r="16" spans="2:38">
+      <c r="B16" s="16">
+        <v>0.333333333333333</v>
       </c>
       <c r="C16" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A10="","",_zhongleng_day_hour!A10)</f>
@@ -3640,16 +4253,16 @@
         <f>IF(_zhongleng_day_hour!AE10="","",_zhongleng_day_hour!AE10)</f>
         <v/>
       </c>
-      <c r="AH16" s="47"/>
-      <c r="AI16" s="13" t="s">
+      <c r="AH16" s="42"/>
+      <c r="AI16" s="53" t="s">
         <v>81</v>
       </c>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
-      <c r="AL16" s="12"/>
+      <c r="AL16" s="49"/>
     </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B17" s="7">
+    <row r="17" spans="2:38">
+      <c r="B17" s="16">
         <v>0.375</v>
       </c>
       <c r="C17" s="1" t="str">
@@ -3776,19 +4389,19 @@
         <f>IF(_zhongleng_day_hour!AE11="","",_zhongleng_day_hour!AE11)</f>
         <v/>
       </c>
-      <c r="AH17" s="51" t="s">
+      <c r="AH17" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="AI17" s="13" t="s">
+      <c r="AI17" s="53" t="s">
         <v>80</v>
       </c>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
-      <c r="AL17" s="12"/>
+      <c r="AL17" s="49"/>
     </row>
-    <row r="18" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B18" s="7">
-        <v>0.41666666666666602</v>
+    <row r="18" spans="2:38">
+      <c r="B18" s="16">
+        <v>0.416666666666666</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A12="","",_zhongleng_day_hour!A12)</f>
@@ -3914,17 +4527,17 @@
         <f>IF(_zhongleng_day_hour!AE12="","",_zhongleng_day_hour!AE12)</f>
         <v/>
       </c>
-      <c r="AH18" s="51"/>
-      <c r="AI18" s="13" t="s">
+      <c r="AH18" s="58"/>
+      <c r="AI18" s="53" t="s">
         <v>81</v>
       </c>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
-      <c r="AL18" s="12"/>
+      <c r="AL18" s="49"/>
     </row>
-    <row r="19" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B19" s="7">
-        <v>0.45833333333333298</v>
+    <row r="19" spans="2:38">
+      <c r="B19" s="16">
+        <v>0.458333333333333</v>
       </c>
       <c r="C19" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A13="","",_zhongleng_day_hour!A13)</f>
@@ -4050,14 +4663,14 @@
         <f>IF(_zhongleng_day_hour!AE13="","",_zhongleng_day_hour!AE13)</f>
         <v/>
       </c>
-      <c r="AH19" s="57"/>
-      <c r="AI19" s="58"/>
-      <c r="AJ19" s="58"/>
-      <c r="AK19" s="58"/>
-      <c r="AL19" s="59"/>
+      <c r="AH19" s="59"/>
+      <c r="AI19" s="60"/>
+      <c r="AJ19" s="60"/>
+      <c r="AK19" s="60"/>
+      <c r="AL19" s="61"/>
     </row>
-    <row r="20" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B20" s="7">
+    <row r="20" spans="2:38">
+      <c r="B20" s="16">
         <v>0.5</v>
       </c>
       <c r="C20" s="1" t="str">
@@ -4184,15 +4797,15 @@
         <f>IF(_zhongleng_day_hour!AE14="","",_zhongleng_day_hour!AE14)</f>
         <v/>
       </c>
-      <c r="AH20" s="60"/>
-      <c r="AI20" s="61"/>
-      <c r="AJ20" s="61"/>
-      <c r="AK20" s="61"/>
-      <c r="AL20" s="62"/>
+      <c r="AH20" s="62"/>
+      <c r="AI20" s="63"/>
+      <c r="AJ20" s="63"/>
+      <c r="AK20" s="63"/>
+      <c r="AL20" s="64"/>
     </row>
-    <row r="21" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B21" s="7">
-        <v>0.54166666666666596</v>
+    <row r="21" spans="2:38">
+      <c r="B21" s="16">
+        <v>0.541666666666666</v>
       </c>
       <c r="C21" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A15="","",_zhongleng_day_hour!A15)</f>
@@ -4318,15 +4931,15 @@
         <f>IF(_zhongleng_day_hour!AE15="","",_zhongleng_day_hour!AE15)</f>
         <v/>
       </c>
-      <c r="AH21" s="60"/>
-      <c r="AI21" s="61"/>
-      <c r="AJ21" s="61"/>
-      <c r="AK21" s="61"/>
-      <c r="AL21" s="62"/>
+      <c r="AH21" s="62"/>
+      <c r="AI21" s="63"/>
+      <c r="AJ21" s="63"/>
+      <c r="AK21" s="63"/>
+      <c r="AL21" s="64"/>
     </row>
-    <row r="22" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B22" s="7">
-        <v>0.58333333333333304</v>
+    <row r="22" spans="2:38">
+      <c r="B22" s="16">
+        <v>0.583333333333333</v>
       </c>
       <c r="C22" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A16="","",_zhongleng_day_hour!A16)</f>
@@ -4452,14 +5065,14 @@
         <f>IF(_zhongleng_day_hour!AE16="","",_zhongleng_day_hour!AE16)</f>
         <v/>
       </c>
-      <c r="AH22" s="60"/>
-      <c r="AI22" s="61"/>
-      <c r="AJ22" s="61"/>
-      <c r="AK22" s="61"/>
-      <c r="AL22" s="62"/>
+      <c r="AH22" s="62"/>
+      <c r="AI22" s="63"/>
+      <c r="AJ22" s="63"/>
+      <c r="AK22" s="63"/>
+      <c r="AL22" s="64"/>
     </row>
-    <row r="23" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B23" s="7">
+    <row r="23" spans="2:38">
+      <c r="B23" s="16">
         <v>0.625</v>
       </c>
       <c r="C23" s="1" t="str">
@@ -4586,15 +5199,15 @@
         <f>IF(_zhongleng_day_hour!AE17="","",_zhongleng_day_hour!AE17)</f>
         <v/>
       </c>
-      <c r="AH23" s="60"/>
-      <c r="AI23" s="61"/>
-      <c r="AJ23" s="61"/>
-      <c r="AK23" s="61"/>
-      <c r="AL23" s="62"/>
+      <c r="AH23" s="62"/>
+      <c r="AI23" s="63"/>
+      <c r="AJ23" s="63"/>
+      <c r="AK23" s="63"/>
+      <c r="AL23" s="64"/>
     </row>
-    <row r="24" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B24" s="7">
-        <v>0.66666666666666696</v>
+    <row r="24" spans="2:38">
+      <c r="B24" s="16">
+        <v>0.666666666666667</v>
       </c>
       <c r="C24" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A18="","",_zhongleng_day_hour!A18)</f>
@@ -4720,15 +5333,15 @@
         <f>IF(_zhongleng_day_hour!AE18="","",_zhongleng_day_hour!AE18)</f>
         <v/>
       </c>
-      <c r="AH24" s="60"/>
-      <c r="AI24" s="61"/>
-      <c r="AJ24" s="61"/>
-      <c r="AK24" s="61"/>
-      <c r="AL24" s="62"/>
+      <c r="AH24" s="62"/>
+      <c r="AI24" s="63"/>
+      <c r="AJ24" s="63"/>
+      <c r="AK24" s="63"/>
+      <c r="AL24" s="64"/>
     </row>
-    <row r="25" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B25" s="7">
-        <v>0.70833333333333304</v>
+    <row r="25" spans="2:38">
+      <c r="B25" s="16">
+        <v>0.708333333333333</v>
       </c>
       <c r="C25" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A19="","",_zhongleng_day_hour!A19)</f>
@@ -4854,14 +5467,14 @@
         <f>IF(_zhongleng_day_hour!AE19="","",_zhongleng_day_hour!AE19)</f>
         <v/>
       </c>
-      <c r="AH25" s="60"/>
-      <c r="AI25" s="61"/>
-      <c r="AJ25" s="61"/>
-      <c r="AK25" s="61"/>
-      <c r="AL25" s="62"/>
+      <c r="AH25" s="62"/>
+      <c r="AI25" s="63"/>
+      <c r="AJ25" s="63"/>
+      <c r="AK25" s="63"/>
+      <c r="AL25" s="64"/>
     </row>
-    <row r="26" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B26" s="7">
+    <row r="26" spans="2:38">
+      <c r="B26" s="16">
         <v>0.75</v>
       </c>
       <c r="C26" s="1" t="str">
@@ -4988,15 +5601,15 @@
         <f>IF(_zhongleng_day_hour!AE20="","",_zhongleng_day_hour!AE20)</f>
         <v/>
       </c>
-      <c r="AH26" s="60"/>
-      <c r="AI26" s="61"/>
-      <c r="AJ26" s="61"/>
-      <c r="AK26" s="61"/>
-      <c r="AL26" s="62"/>
+      <c r="AH26" s="62"/>
+      <c r="AI26" s="63"/>
+      <c r="AJ26" s="63"/>
+      <c r="AK26" s="63"/>
+      <c r="AL26" s="64"/>
     </row>
-    <row r="27" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B27" s="7">
-        <v>0.79166666666666696</v>
+    <row r="27" spans="2:38">
+      <c r="B27" s="16">
+        <v>0.791666666666667</v>
       </c>
       <c r="C27" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A21="","",_zhongleng_day_hour!A21)</f>
@@ -5122,15 +5735,15 @@
         <f>IF(_zhongleng_day_hour!AE21="","",_zhongleng_day_hour!AE21)</f>
         <v/>
       </c>
-      <c r="AH27" s="60"/>
-      <c r="AI27" s="61"/>
-      <c r="AJ27" s="61"/>
-      <c r="AK27" s="61"/>
-      <c r="AL27" s="62"/>
+      <c r="AH27" s="62"/>
+      <c r="AI27" s="63"/>
+      <c r="AJ27" s="63"/>
+      <c r="AK27" s="63"/>
+      <c r="AL27" s="64"/>
     </row>
-    <row r="28" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B28" s="7">
-        <v>0.83333333333333304</v>
+    <row r="28" spans="2:38">
+      <c r="B28" s="16">
+        <v>0.833333333333333</v>
       </c>
       <c r="C28" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A22="","",_zhongleng_day_hour!A22)</f>
@@ -5256,14 +5869,14 @@
         <f>IF(_zhongleng_day_hour!AE22="","",_zhongleng_day_hour!AE22)</f>
         <v/>
       </c>
-      <c r="AH28" s="60"/>
-      <c r="AI28" s="61"/>
-      <c r="AJ28" s="61"/>
-      <c r="AK28" s="61"/>
-      <c r="AL28" s="62"/>
+      <c r="AH28" s="62"/>
+      <c r="AI28" s="63"/>
+      <c r="AJ28" s="63"/>
+      <c r="AK28" s="63"/>
+      <c r="AL28" s="64"/>
     </row>
-    <row r="29" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B29" s="7">
+    <row r="29" spans="2:38">
+      <c r="B29" s="16">
         <v>0.875</v>
       </c>
       <c r="C29" s="1" t="str">
@@ -5390,15 +6003,15 @@
         <f>IF(_zhongleng_day_hour!AE23="","",_zhongleng_day_hour!AE23)</f>
         <v/>
       </c>
-      <c r="AH29" s="60"/>
-      <c r="AI29" s="61"/>
-      <c r="AJ29" s="61"/>
-      <c r="AK29" s="61"/>
-      <c r="AL29" s="62"/>
+      <c r="AH29" s="62"/>
+      <c r="AI29" s="63"/>
+      <c r="AJ29" s="63"/>
+      <c r="AK29" s="63"/>
+      <c r="AL29" s="64"/>
     </row>
-    <row r="30" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B30" s="7">
-        <v>0.91666666666666696</v>
+    <row r="30" spans="2:38">
+      <c r="B30" s="16">
+        <v>0.916666666666667</v>
       </c>
       <c r="C30" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A24="","",_zhongleng_day_hour!A24)</f>
@@ -5524,15 +6137,15 @@
         <f>IF(_zhongleng_day_hour!AE24="","",_zhongleng_day_hour!AE24)</f>
         <v/>
       </c>
-      <c r="AH30" s="60"/>
-      <c r="AI30" s="61"/>
-      <c r="AJ30" s="61"/>
-      <c r="AK30" s="61"/>
-      <c r="AL30" s="62"/>
+      <c r="AH30" s="62"/>
+      <c r="AI30" s="63"/>
+      <c r="AJ30" s="63"/>
+      <c r="AK30" s="63"/>
+      <c r="AL30" s="64"/>
     </row>
-    <row r="31" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B31" s="7">
-        <v>0.95833333333333304</v>
+    <row r="31" spans="2:38">
+      <c r="B31" s="16">
+        <v>0.958333333333333</v>
       </c>
       <c r="C31" s="1" t="str">
         <f>IF(_zhongleng_day_hour!A25="","",_zhongleng_day_hour!A25)</f>
@@ -5658,14 +6271,14 @@
         <f>IF(_zhongleng_day_hour!AE25="","",_zhongleng_day_hour!AE25)</f>
         <v/>
       </c>
-      <c r="AH31" s="60"/>
-      <c r="AI31" s="61"/>
-      <c r="AJ31" s="61"/>
-      <c r="AK31" s="61"/>
-      <c r="AL31" s="62"/>
+      <c r="AH31" s="62"/>
+      <c r="AI31" s="63"/>
+      <c r="AJ31" s="63"/>
+      <c r="AK31" s="63"/>
+      <c r="AL31" s="64"/>
     </row>
-    <row r="32" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B32" s="8" t="s">
+    <row r="32" spans="2:38">
+      <c r="B32" s="17" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="1"/>
@@ -5699,14 +6312,14 @@
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
       <c r="AG32" s="2"/>
-      <c r="AH32" s="60"/>
-      <c r="AI32" s="61"/>
-      <c r="AJ32" s="61"/>
-      <c r="AK32" s="61"/>
-      <c r="AL32" s="62"/>
+      <c r="AH32" s="62"/>
+      <c r="AI32" s="63"/>
+      <c r="AJ32" s="63"/>
+      <c r="AK32" s="63"/>
+      <c r="AL32" s="64"/>
     </row>
-    <row r="33" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B33" s="8" t="s">
+    <row r="33" spans="2:38">
+      <c r="B33" s="17" t="s">
         <v>84</v>
       </c>
       <c r="C33" s="1"/>
@@ -5740,14 +6353,14 @@
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
       <c r="AG33" s="2"/>
-      <c r="AH33" s="60"/>
-      <c r="AI33" s="61"/>
-      <c r="AJ33" s="61"/>
-      <c r="AK33" s="61"/>
-      <c r="AL33" s="62"/>
+      <c r="AH33" s="62"/>
+      <c r="AI33" s="63"/>
+      <c r="AJ33" s="63"/>
+      <c r="AK33" s="63"/>
+      <c r="AL33" s="64"/>
     </row>
-    <row r="34" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B34" s="8" t="s">
+    <row r="34" spans="2:38">
+      <c r="B34" s="17" t="s">
         <v>85</v>
       </c>
       <c r="C34" s="1"/>
@@ -5781,149 +6394,168 @@
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
       <c r="AG34" s="2"/>
-      <c r="AH34" s="60"/>
-      <c r="AI34" s="61"/>
-      <c r="AJ34" s="61"/>
-      <c r="AK34" s="61"/>
-      <c r="AL34" s="62"/>
+      <c r="AH34" s="62"/>
+      <c r="AI34" s="63"/>
+      <c r="AJ34" s="63"/>
+      <c r="AK34" s="63"/>
+      <c r="AL34" s="64"/>
     </row>
-    <row r="35" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B35" s="9" t="s">
+    <row r="35" ht="14.25" spans="2:38">
+      <c r="B35" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="10"/>
-      <c r="AB35" s="10"/>
-      <c r="AC35" s="10"/>
-      <c r="AD35" s="10"/>
-      <c r="AE35" s="10"/>
-      <c r="AF35" s="10"/>
-      <c r="AG35" s="15"/>
-      <c r="AH35" s="60"/>
-      <c r="AI35" s="61"/>
-      <c r="AJ35" s="61"/>
-      <c r="AK35" s="61"/>
-      <c r="AL35" s="62"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="19"/>
+      <c r="AF35" s="19"/>
+      <c r="AG35" s="65"/>
+      <c r="AH35" s="62"/>
+      <c r="AI35" s="63"/>
+      <c r="AJ35" s="63"/>
+      <c r="AK35" s="63"/>
+      <c r="AL35" s="64"/>
     </row>
-    <row r="36" spans="2:38" ht="78.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="33" t="s">
+    <row r="36" ht="78.95" customHeight="1" spans="2:38">
+      <c r="B36" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="33" t="s">
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="33" t="s">
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="W36" s="36"/>
-      <c r="X36" s="36"/>
-      <c r="Y36" s="36"/>
-      <c r="Z36" s="36"/>
-      <c r="AA36" s="36"/>
-      <c r="AB36" s="36"/>
-      <c r="AC36" s="65"/>
-      <c r="AD36" s="66"/>
-      <c r="AE36" s="66"/>
-      <c r="AF36" s="66"/>
-      <c r="AG36" s="66"/>
-      <c r="AH36" s="61"/>
-      <c r="AI36" s="61"/>
-      <c r="AJ36" s="61"/>
-      <c r="AK36" s="61"/>
-      <c r="AL36" s="62"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="27"/>
+      <c r="AC36" s="33"/>
+      <c r="AD36" s="34"/>
+      <c r="AE36" s="34"/>
+      <c r="AF36" s="34"/>
+      <c r="AG36" s="34"/>
+      <c r="AH36" s="63"/>
+      <c r="AI36" s="63"/>
+      <c r="AJ36" s="63"/>
+      <c r="AK36" s="63"/>
+      <c r="AL36" s="64"/>
     </row>
-    <row r="37" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="38" t="s">
+    <row r="37" ht="16.5" spans="2:38">
+      <c r="B37" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="38" t="s">
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="42"/>
-      <c r="V37" s="38" t="s">
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="W37" s="41"/>
-      <c r="X37" s="41"/>
-      <c r="Y37" s="41"/>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="41"/>
-      <c r="AB37" s="41"/>
-      <c r="AC37" s="67"/>
-      <c r="AD37" s="63"/>
-      <c r="AE37" s="63"/>
-      <c r="AF37" s="63"/>
-      <c r="AG37" s="63"/>
-      <c r="AH37" s="63"/>
-      <c r="AI37" s="63"/>
-      <c r="AJ37" s="63"/>
-      <c r="AK37" s="63"/>
-      <c r="AL37" s="64"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="35"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="36"/>
+      <c r="AH37" s="36"/>
+      <c r="AI37" s="36"/>
+      <c r="AJ37" s="36"/>
+      <c r="AK37" s="36"/>
+      <c r="AL37" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="AH17:AH18"/>
-    <mergeCell ref="AH3:AL5"/>
-    <mergeCell ref="AH19:AL37"/>
-    <mergeCell ref="AC36:AG37"/>
+    <mergeCell ref="B1:Z1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:Z2"/>
+    <mergeCell ref="C3:V3"/>
+    <mergeCell ref="W3:AG3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:AD4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AH7:AL7"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="L36:U36"/>
+    <mergeCell ref="V36:AB36"/>
     <mergeCell ref="B37:K37"/>
     <mergeCell ref="L37:U37"/>
     <mergeCell ref="V37:AB37"/>
@@ -5940,12 +6572,6 @@
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AH7:AL7"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="L36:U36"/>
-    <mergeCell ref="V36:AB36"/>
     <mergeCell ref="U5:U6"/>
     <mergeCell ref="V5:V6"/>
     <mergeCell ref="W5:W6"/>
@@ -5956,42 +6582,30 @@
     <mergeCell ref="AH8:AH9"/>
     <mergeCell ref="AH10:AH14"/>
     <mergeCell ref="AH15:AH16"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="C3:V3"/>
-    <mergeCell ref="W3:AG3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:AD4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="B1:Z1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:Z2"/>
+    <mergeCell ref="AH17:AH18"/>
+    <mergeCell ref="AH3:AL5"/>
+    <mergeCell ref="AH19:AL37"/>
+    <mergeCell ref="AC36:AG37"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AE1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -6087,35 +6701,39 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-终冷洗苯报表设计.xlsx
+++ b/excel/finished/焦化/CK67-终冷洗苯报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="19050" windowHeight="4005"/>
   </bookViews>
   <sheets>
     <sheet name="6.终冷洗苯" sheetId="1" r:id="rId1"/>
@@ -550,12 +550,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,11 +631,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -655,8 +650,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,9 +677,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,6 +737,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -700,37 +752,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -747,61 +770,33 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -837,7 +832,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,7 +880,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,25 +964,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,13 +976,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,120 +1012,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="44">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1201,15 +1196,6 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1487,6 +1473,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1498,6 +1513,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1520,50 +1550,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1575,10 +1561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1587,136 +1573,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -1781,27 +1767,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1810,36 +1799,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1850,34 +1836,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1887,17 +1876,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1984,7 +1970,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13166725" y="5976620"/>
+          <a:off x="13166725" y="5938520"/>
           <a:ext cx="4516120" cy="134620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2178,7 +2164,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6572250" y="712470"/>
+          <a:off x="6572250" y="674370"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2224,7 +2210,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6572250" y="1055370"/>
+          <a:off x="6572250" y="1017270"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2270,7 +2256,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6572250" y="712470"/>
+          <a:off x="6572250" y="674370"/>
           <a:ext cx="0" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2316,7 +2302,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6572250" y="712470"/>
+          <a:off x="6572250" y="674370"/>
           <a:ext cx="0" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2603,8 +2589,8 @@
   <sheetPr/>
   <dimension ref="B1:AL37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:Q2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2613,7 +2599,7 @@
     <col min="35" max="35" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="2:26">
+    <row r="1" customFormat="1" ht="22.5" spans="2:26">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2642,7 +2628,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" ht="19.5" spans="2:26">
+    <row r="2" customFormat="1" ht="16.5" spans="2:26">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -2657,9 +2643,9 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="24">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="P2" s="24" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="Q2" s="24"/>
       <c r="R2" s="30"/>
@@ -2672,7 +2658,7 @@
       <c r="Y2" s="30"/>
       <c r="Z2" s="30"/>
     </row>
-    <row r="3" ht="14.1" customHeight="1" spans="2:38">
+    <row r="3" customFormat="1" ht="14.1" customHeight="1" spans="2:38">
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
@@ -2719,7 +2705,7 @@
       <c r="AK3" s="39"/>
       <c r="AL3" s="40"/>
     </row>
-    <row r="4" spans="2:38">
+    <row r="4" customFormat="1" spans="2:38">
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
         <v>5</v>
@@ -2768,7 +2754,7 @@
       <c r="AK4" s="43"/>
       <c r="AL4" s="44"/>
     </row>
-    <row r="5" spans="2:38">
+    <row r="5" customFormat="1" spans="2:38">
       <c r="B5" s="10"/>
       <c r="C5" s="12" t="s">
         <v>10</v>
@@ -2857,7 +2843,7 @@
       <c r="AK5" s="43"/>
       <c r="AL5" s="44"/>
     </row>
-    <row r="6" spans="2:38">
+    <row r="6" customFormat="1" spans="2:38">
       <c r="B6" s="10"/>
       <c r="C6" s="12" t="s">
         <v>32</v>
@@ -2928,7 +2914,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" ht="19.5" customHeight="1" spans="2:38">
+    <row r="7" customFormat="1" ht="19.5" customHeight="1" spans="2:38">
       <c r="B7" s="15" t="s">
         <v>38</v>
       </c>
@@ -3031,7 +3017,7 @@
       <c r="AK7" s="51"/>
       <c r="AL7" s="52"/>
     </row>
-    <row r="8" spans="2:38">
+    <row r="8" customFormat="1" spans="2:38">
       <c r="B8" s="16">
         <v>0</v>
       </c>
@@ -3165,11 +3151,20 @@
       <c r="AI8" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="49"/>
+      <c r="AJ8" s="1" t="str">
+        <f>IF(_analysis_day_shift!A2="","",_analysis_day_shift!A2)</f>
+        <v/>
+      </c>
+      <c r="AK8" s="1" t="str">
+        <f>IF(_analysis_day_shift!A3="","",_analysis_day_shift!A3)</f>
+        <v/>
+      </c>
+      <c r="AL8" s="49" t="str">
+        <f>IF(_analysis_day_shift!A4="","",_analysis_day_shift!A4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="9" spans="2:38">
+    <row r="9" customFormat="1" spans="2:38">
       <c r="B9" s="16">
         <v>0.0416666666666667</v>
       </c>
@@ -3301,11 +3296,20 @@
       <c r="AI9" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="49"/>
+      <c r="AJ9" s="1" t="str">
+        <f>IF(_analysis_day_shift!B2="","",_analysis_day_shift!B2)</f>
+        <v/>
+      </c>
+      <c r="AK9" s="1" t="str">
+        <f>IF(_analysis_day_shift!B3="","",_analysis_day_shift!B3)</f>
+        <v/>
+      </c>
+      <c r="AL9" s="49" t="str">
+        <f>IF(_analysis_day_shift!B4="","",_analysis_day_shift!B4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="10" ht="14.1" customHeight="1" spans="2:38">
+    <row r="10" customFormat="1" ht="14.1" customHeight="1" spans="2:38">
       <c r="B10" s="16">
         <v>0.0833333333333333</v>
       </c>
@@ -3439,11 +3443,20 @@
       <c r="AI10" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="49"/>
+      <c r="AJ10" s="1" t="str">
+        <f>IF(_analysis_day_shift!C2="","",_analysis_day_shift!C2)</f>
+        <v/>
+      </c>
+      <c r="AK10" s="1" t="str">
+        <f>IF(_analysis_day_shift!C3="","",_analysis_day_shift!C3)</f>
+        <v/>
+      </c>
+      <c r="AL10" s="49" t="str">
+        <f>IF(_analysis_day_shift!C4="","",_analysis_day_shift!C4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="11" spans="2:38">
+    <row r="11" customFormat="1" spans="2:38">
       <c r="B11" s="16">
         <v>0.125</v>
       </c>
@@ -3575,11 +3588,20 @@
       <c r="AI11" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="49"/>
+      <c r="AJ11" s="1" t="str">
+        <f>IF(_analysis_day_shift!D2="","",_analysis_day_shift!D2)</f>
+        <v/>
+      </c>
+      <c r="AK11" s="1" t="str">
+        <f>IF(_analysis_day_shift!D3="","",_analysis_day_shift!D3)</f>
+        <v/>
+      </c>
+      <c r="AL11" s="49" t="str">
+        <f>IF(_analysis_day_shift!D4="","",_analysis_day_shift!D4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="12" spans="2:38">
+    <row r="12" customFormat="1" spans="2:38">
       <c r="B12" s="16">
         <v>0.166666666666667</v>
       </c>
@@ -3711,11 +3733,20 @@
       <c r="AI12" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="49"/>
+      <c r="AJ12" s="1" t="str">
+        <f>IF(_analysis_day_shift!E2="","",_analysis_day_shift!E2)</f>
+        <v/>
+      </c>
+      <c r="AK12" s="1" t="str">
+        <f>IF(_analysis_day_shift!E3="","",_analysis_day_shift!E3)</f>
+        <v/>
+      </c>
+      <c r="AL12" s="49" t="str">
+        <f>IF(_analysis_day_shift!E4="","",_analysis_day_shift!E4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="13" spans="2:38">
+    <row r="13" customFormat="1" spans="2:38">
       <c r="B13" s="16">
         <v>0.208333333333333</v>
       </c>
@@ -3847,11 +3878,20 @@
       <c r="AI13" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="49"/>
+      <c r="AJ13" s="1" t="str">
+        <f>IF(_analysis_day_shift!F2="","",_analysis_day_shift!F2)</f>
+        <v/>
+      </c>
+      <c r="AK13" s="1" t="str">
+        <f>IF(_analysis_day_shift!F3="","",_analysis_day_shift!F3)</f>
+        <v/>
+      </c>
+      <c r="AL13" s="49" t="str">
+        <f>IF(_analysis_day_shift!F4="","",_analysis_day_shift!F4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="14" spans="2:38">
+    <row r="14" customFormat="1" spans="2:38">
       <c r="B14" s="16">
         <v>0.25</v>
       </c>
@@ -3983,11 +4023,20 @@
       <c r="AI14" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="49"/>
+      <c r="AJ14" s="1" t="str">
+        <f>IF(_analysis_day_shift!G2="","",_analysis_day_shift!G2)</f>
+        <v/>
+      </c>
+      <c r="AK14" s="1" t="str">
+        <f>IF(_analysis_day_shift!G3="","",_analysis_day_shift!G3)</f>
+        <v/>
+      </c>
+      <c r="AL14" s="49" t="str">
+        <f>IF(_analysis_day_shift!G4="","",_analysis_day_shift!G4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="15" spans="2:38">
+    <row r="15" customFormat="1" spans="2:38">
       <c r="B15" s="16">
         <v>0.291666666666667</v>
       </c>
@@ -4121,11 +4170,20 @@
       <c r="AI15" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="49"/>
+      <c r="AJ15" s="1" t="str">
+        <f>IF(_analysis_day_shift!H2="","",_analysis_day_shift!H2)</f>
+        <v/>
+      </c>
+      <c r="AK15" s="1" t="str">
+        <f>IF(_analysis_day_shift!H3="","",_analysis_day_shift!H3)</f>
+        <v/>
+      </c>
+      <c r="AL15" s="49" t="str">
+        <f>IF(_analysis_day_shift!H4="","",_analysis_day_shift!H4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="16" spans="2:38">
+    <row r="16" customFormat="1" spans="2:38">
       <c r="B16" s="16">
         <v>0.333333333333333</v>
       </c>
@@ -4257,11 +4315,20 @@
       <c r="AI16" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="49"/>
+      <c r="AJ16" s="1" t="str">
+        <f>IF(_analysis_day_shift!I2="","",_analysis_day_shift!I2)</f>
+        <v/>
+      </c>
+      <c r="AK16" s="1" t="str">
+        <f>IF(_analysis_day_shift!I3="","",_analysis_day_shift!I3)</f>
+        <v/>
+      </c>
+      <c r="AL16" s="49" t="str">
+        <f>IF(_analysis_day_shift!I4="","",_analysis_day_shift!I4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="17" spans="2:38">
+    <row r="17" customFormat="1" spans="2:38">
       <c r="B17" s="16">
         <v>0.375</v>
       </c>
@@ -4395,11 +4462,20 @@
       <c r="AI17" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="49"/>
+      <c r="AJ17" s="1" t="str">
+        <f>IF(_analysis_day_shift!J2="","",_analysis_day_shift!J2)</f>
+        <v/>
+      </c>
+      <c r="AK17" s="1" t="str">
+        <f>IF(_analysis_day_shift!J3="","",_analysis_day_shift!J3)</f>
+        <v/>
+      </c>
+      <c r="AL17" s="49" t="str">
+        <f>IF(_analysis_day_shift!J4="","",_analysis_day_shift!J4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="18" spans="2:38">
+    <row r="18" customFormat="1" spans="2:38">
       <c r="B18" s="16">
         <v>0.416666666666666</v>
       </c>
@@ -4531,11 +4607,20 @@
       <c r="AI18" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="49"/>
+      <c r="AJ18" s="1" t="str">
+        <f>IF(_analysis_day_shift!K2="","",_analysis_day_shift!K2)</f>
+        <v/>
+      </c>
+      <c r="AK18" s="1" t="str">
+        <f>IF(_analysis_day_shift!K3="","",_analysis_day_shift!K3)</f>
+        <v/>
+      </c>
+      <c r="AL18" s="49" t="str">
+        <f>IF(_analysis_day_shift!K4="","",_analysis_day_shift!K4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="19" spans="2:38">
+    <row r="19" customFormat="1" spans="2:38">
       <c r="B19" s="16">
         <v>0.458333333333333</v>
       </c>
@@ -4669,7 +4754,7 @@
       <c r="AK19" s="60"/>
       <c r="AL19" s="61"/>
     </row>
-    <row r="20" spans="2:38">
+    <row r="20" customFormat="1" spans="2:38">
       <c r="B20" s="16">
         <v>0.5</v>
       </c>
@@ -4803,7 +4888,7 @@
       <c r="AK20" s="63"/>
       <c r="AL20" s="64"/>
     </row>
-    <row r="21" spans="2:38">
+    <row r="21" customFormat="1" spans="2:38">
       <c r="B21" s="16">
         <v>0.541666666666666</v>
       </c>
@@ -4937,7 +5022,7 @@
       <c r="AK21" s="63"/>
       <c r="AL21" s="64"/>
     </row>
-    <row r="22" spans="2:38">
+    <row r="22" customFormat="1" spans="2:38">
       <c r="B22" s="16">
         <v>0.583333333333333</v>
       </c>
@@ -5071,7 +5156,7 @@
       <c r="AK22" s="63"/>
       <c r="AL22" s="64"/>
     </row>
-    <row r="23" spans="2:38">
+    <row r="23" customFormat="1" spans="2:38">
       <c r="B23" s="16">
         <v>0.625</v>
       </c>
@@ -5205,7 +5290,7 @@
       <c r="AK23" s="63"/>
       <c r="AL23" s="64"/>
     </row>
-    <row r="24" spans="2:38">
+    <row r="24" customFormat="1" spans="2:38">
       <c r="B24" s="16">
         <v>0.666666666666667</v>
       </c>
@@ -5339,7 +5424,7 @@
       <c r="AK24" s="63"/>
       <c r="AL24" s="64"/>
     </row>
-    <row r="25" spans="2:38">
+    <row r="25" customFormat="1" spans="2:38">
       <c r="B25" s="16">
         <v>0.708333333333333</v>
       </c>
@@ -5473,7 +5558,7 @@
       <c r="AK25" s="63"/>
       <c r="AL25" s="64"/>
     </row>
-    <row r="26" spans="2:38">
+    <row r="26" customFormat="1" spans="2:38">
       <c r="B26" s="16">
         <v>0.75</v>
       </c>
@@ -5607,7 +5692,7 @@
       <c r="AK26" s="63"/>
       <c r="AL26" s="64"/>
     </row>
-    <row r="27" spans="2:38">
+    <row r="27" customFormat="1" spans="2:38">
       <c r="B27" s="16">
         <v>0.791666666666667</v>
       </c>
@@ -5741,7 +5826,7 @@
       <c r="AK27" s="63"/>
       <c r="AL27" s="64"/>
     </row>
-    <row r="28" spans="2:38">
+    <row r="28" customFormat="1" spans="2:38">
       <c r="B28" s="16">
         <v>0.833333333333333</v>
       </c>
@@ -5875,7 +5960,7 @@
       <c r="AK28" s="63"/>
       <c r="AL28" s="64"/>
     </row>
-    <row r="29" spans="2:38">
+    <row r="29" customFormat="1" spans="2:38">
       <c r="B29" s="16">
         <v>0.875</v>
       </c>
@@ -6009,7 +6094,7 @@
       <c r="AK29" s="63"/>
       <c r="AL29" s="64"/>
     </row>
-    <row r="30" spans="2:38">
+    <row r="30" customFormat="1" spans="2:38">
       <c r="B30" s="16">
         <v>0.916666666666667</v>
       </c>
@@ -6143,7 +6228,7 @@
       <c r="AK30" s="63"/>
       <c r="AL30" s="64"/>
     </row>
-    <row r="31" spans="2:38">
+    <row r="31" customFormat="1" spans="2:38">
       <c r="B31" s="16">
         <v>0.958333333333333</v>
       </c>
@@ -6277,7 +6362,7 @@
       <c r="AK31" s="63"/>
       <c r="AL31" s="64"/>
     </row>
-    <row r="32" spans="2:38">
+    <row r="32" customFormat="1" spans="2:38">
       <c r="B32" s="17" t="s">
         <v>83</v>
       </c>
@@ -6318,7 +6403,7 @@
       <c r="AK32" s="63"/>
       <c r="AL32" s="64"/>
     </row>
-    <row r="33" spans="2:38">
+    <row r="33" customFormat="1" spans="2:38">
       <c r="B33" s="17" t="s">
         <v>84</v>
       </c>
@@ -6359,7 +6444,7 @@
       <c r="AK33" s="63"/>
       <c r="AL33" s="64"/>
     </row>
-    <row r="34" spans="2:38">
+    <row r="34" customFormat="1" spans="2:38">
       <c r="B34" s="17" t="s">
         <v>85</v>
       </c>
@@ -6400,7 +6485,7 @@
       <c r="AK34" s="63"/>
       <c r="AL34" s="64"/>
     </row>
-    <row r="35" ht="14.25" spans="2:38">
+    <row r="35" customFormat="1" ht="14.25" spans="2:38">
       <c r="B35" s="18" t="s">
         <v>86</v>
       </c>
@@ -6441,7 +6526,7 @@
       <c r="AK35" s="63"/>
       <c r="AL35" s="64"/>
     </row>
-    <row r="36" ht="78.95" customHeight="1" spans="2:38">
+    <row r="36" customFormat="1" ht="78.95" customHeight="1" spans="2:38">
       <c r="B36" s="20" t="s">
         <v>87</v>
       </c>
@@ -6588,7 +6673,6 @@
     <mergeCell ref="AC36:AG37"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6605,7 +6689,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" customFormat="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>

--- a/excel/finished/焦化/CK67-终冷洗苯报表设计.xlsx
+++ b/excel/finished/焦化/CK67-终冷洗苯报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19050" windowHeight="4005"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="6.终冷洗苯" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
   <si>
     <t xml:space="preserve"> 终 冷 洗 苯 减 温 减 压 干 燥 站 操 作 记 录</t>
   </si>
@@ -543,6 +543,18 @@
       </rPr>
       <t>接班：</t>
     </r>
+  </si>
+  <si>
+    <t>MMJY/苯</t>
+  </si>
+  <si>
+    <t>MMJY/H2O</t>
+  </si>
+  <si>
+    <t>MMJY/苯_2</t>
+  </si>
+  <si>
+    <t>MMJY/H2O_2</t>
   </si>
 </sst>
 </file>
@@ -650,14 +662,54 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,61 +723,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -744,6 +750,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -752,25 +774,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,9 +804,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -838,108 +850,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -952,7 +862,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,13 +934,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,31 +1000,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1454,6 +1466,24 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1473,35 +1503,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1517,17 +1518,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1550,8 +1547,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1561,10 +1573,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1573,136 +1585,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -2589,7 +2601,7 @@
   <sheetPr/>
   <dimension ref="B1:AL37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K4" sqref="K4:T4"/>
     </sheetView>
   </sheetViews>
@@ -6809,14 +6821,29 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="C1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="3:6">
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/excel/finished/焦化/CK67-终冷洗苯报表设计.xlsx
+++ b/excel/finished/焦化/CK67-终冷洗苯报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="6.终冷洗苯" sheetId="1" r:id="rId1"/>
@@ -562,10 +562,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -662,8 +662,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -677,46 +696,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,14 +710,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,6 +752,21 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -758,9 +781,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,37 +790,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,6 +798,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,7 +844,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,13 +868,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,7 +892,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,13 +928,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,25 +982,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,19 +1000,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,73 +1024,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1466,15 +1466,6 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1503,32 +1494,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1546,9 +1511,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1567,16 +1534,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1585,136 +1585,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -2601,7 +2601,7 @@
   <sheetPr/>
   <dimension ref="B1:AL37"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K4" sqref="K4:T4"/>
     </sheetView>
   </sheetViews>
@@ -6823,7 +6823,7 @@
   <sheetPr/>
   <dimension ref="C1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>

--- a/excel/finished/焦化/CK67-终冷洗苯报表设计.xlsx
+++ b/excel/finished/焦化/CK67-终冷洗苯报表设计.xlsx
@@ -4,22 +4,62 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="6.终冷洗苯" sheetId="1" r:id="rId1"/>
     <sheet name="_zhongleng_day_hour" sheetId="2" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
-    <sheet name="_analysis_day_shift" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
   <si>
     <t xml:space="preserve"> 终 冷 洗 苯 减 温 减 压 干 燥 站 操 作 记 录</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
   </si>
   <si>
     <r>
@@ -544,28 +584,16 @@
       <t>接班：</t>
     </r>
   </si>
-  <si>
-    <t>MMJY/苯</t>
-  </si>
-  <si>
-    <t>MMJY/H2O</t>
-  </si>
-  <si>
-    <t>MMJY/苯_2</t>
-  </si>
-  <si>
-    <t>MMJY/H2O_2</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -662,11 +690,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -682,17 +705,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -710,9 +726,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,37 +792,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -773,16 +800,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -796,16 +816,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,91 +872,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,7 +890,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,31 +1004,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,31 +1028,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1474,47 +1502,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1535,6 +1522,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1546,9 +1557,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1567,16 +1580,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1585,136 +1613,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -1779,7 +1807,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2601,8 +2629,8 @@
   <sheetPr/>
   <dimension ref="B1:AL37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:T4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2655,9 +2683,8 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="24" t="str">
-        <f>IF(_metadata!B2="","",_metadata!B2)</f>
-        <v/>
+      <c r="P2" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="Q2" s="24"/>
       <c r="R2" s="30"/>
@@ -2672,10 +2699,10 @@
     </row>
     <row r="3" customFormat="1" ht="14.1" customHeight="1" spans="2:38">
       <c r="B3" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -2697,7 +2724,7 @@
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
       <c r="W3" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
@@ -2710,7 +2737,7 @@
       <c r="AF3" s="9"/>
       <c r="AG3" s="37"/>
       <c r="AH3" s="38" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI3" s="39"/>
       <c r="AJ3" s="39"/>
@@ -2720,7 +2747,7 @@
     <row r="4" customFormat="1" spans="2:38">
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -2730,7 +2757,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
@@ -2742,11 +2769,11 @@
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
       <c r="U4" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V4" s="11"/>
       <c r="W4" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
@@ -2756,7 +2783,7 @@
       <c r="AC4" s="13"/>
       <c r="AD4" s="13"/>
       <c r="AE4" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF4" s="12"/>
       <c r="AG4" s="41"/>
@@ -2769,85 +2796,85 @@
     <row r="5" customFormat="1" spans="2:38">
       <c r="B5" s="10"/>
       <c r="C5" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L5" s="25"/>
       <c r="M5" s="25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N5" s="25"/>
       <c r="O5" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R5" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T5" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U5" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V5" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="W5" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="X5" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y5" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z5" s="13"/>
       <c r="AA5" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB5" s="13"/>
       <c r="AC5" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AD5" s="13"/>
       <c r="AE5" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF5" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG5" s="45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH5" s="42"/>
       <c r="AI5" s="43"/>
@@ -2858,10 +2885,10 @@
     <row r="6" customFormat="1" spans="2:38">
       <c r="B6" s="10"/>
       <c r="C6" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="14"/>
@@ -2870,16 +2897,16 @@
       <c r="I6" s="14"/>
       <c r="J6" s="13"/>
       <c r="K6" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="N6" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
@@ -2892,136 +2919,136 @@
       <c r="W6" s="13"/>
       <c r="X6" s="13"/>
       <c r="Y6" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AA6" s="14" t="s">
-        <v>32</v>
-      </c>
       <c r="AB6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AC6" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="AD6" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AE6" s="13"/>
       <c r="AF6" s="13"/>
       <c r="AG6" s="45"/>
       <c r="AH6" s="46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI6" s="47"/>
       <c r="AJ6" s="48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AL6" s="49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="19.5" customHeight="1" spans="2:38">
       <c r="B7" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH7" s="50"/>
       <c r="AI7" s="51"/>
@@ -3158,23 +3185,14 @@
         <v/>
       </c>
       <c r="AH8" s="42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI8" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ8" s="1" t="str">
-        <f>IF(_analysis_day_shift!A2="","",_analysis_day_shift!A2)</f>
-        <v/>
-      </c>
-      <c r="AK8" s="1" t="str">
-        <f>IF(_analysis_day_shift!A3="","",_analysis_day_shift!A3)</f>
-        <v/>
-      </c>
-      <c r="AL8" s="49" t="str">
-        <f>IF(_analysis_day_shift!A4="","",_analysis_day_shift!A4)</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="49"/>
     </row>
     <row r="9" customFormat="1" spans="2:38">
       <c r="B9" s="16">
@@ -3306,20 +3324,11 @@
       </c>
       <c r="AH9" s="42"/>
       <c r="AI9" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ9" s="1" t="str">
-        <f>IF(_analysis_day_shift!B2="","",_analysis_day_shift!B2)</f>
-        <v/>
-      </c>
-      <c r="AK9" s="1" t="str">
-        <f>IF(_analysis_day_shift!B3="","",_analysis_day_shift!B3)</f>
-        <v/>
-      </c>
-      <c r="AL9" s="49" t="str">
-        <f>IF(_analysis_day_shift!B4="","",_analysis_day_shift!B4)</f>
-        <v/>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="49"/>
     </row>
     <row r="10" customFormat="1" ht="14.1" customHeight="1" spans="2:38">
       <c r="B10" s="16">
@@ -3450,23 +3459,14 @@
         <v/>
       </c>
       <c r="AH10" s="54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI10" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ10" s="1" t="str">
-        <f>IF(_analysis_day_shift!C2="","",_analysis_day_shift!C2)</f>
-        <v/>
-      </c>
-      <c r="AK10" s="1" t="str">
-        <f>IF(_analysis_day_shift!C3="","",_analysis_day_shift!C3)</f>
-        <v/>
-      </c>
-      <c r="AL10" s="49" t="str">
-        <f>IF(_analysis_day_shift!C4="","",_analysis_day_shift!C4)</f>
-        <v/>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="49"/>
     </row>
     <row r="11" customFormat="1" spans="2:38">
       <c r="B11" s="16">
@@ -3598,20 +3598,11 @@
       </c>
       <c r="AH11" s="55"/>
       <c r="AI11" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ11" s="1" t="str">
-        <f>IF(_analysis_day_shift!D2="","",_analysis_day_shift!D2)</f>
-        <v/>
-      </c>
-      <c r="AK11" s="1" t="str">
-        <f>IF(_analysis_day_shift!D3="","",_analysis_day_shift!D3)</f>
-        <v/>
-      </c>
-      <c r="AL11" s="49" t="str">
-        <f>IF(_analysis_day_shift!D4="","",_analysis_day_shift!D4)</f>
-        <v/>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="49"/>
     </row>
     <row r="12" customFormat="1" spans="2:38">
       <c r="B12" s="16">
@@ -3743,20 +3734,11 @@
       </c>
       <c r="AH12" s="55"/>
       <c r="AI12" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ12" s="1" t="str">
-        <f>IF(_analysis_day_shift!E2="","",_analysis_day_shift!E2)</f>
-        <v/>
-      </c>
-      <c r="AK12" s="1" t="str">
-        <f>IF(_analysis_day_shift!E3="","",_analysis_day_shift!E3)</f>
-        <v/>
-      </c>
-      <c r="AL12" s="49" t="str">
-        <f>IF(_analysis_day_shift!E4="","",_analysis_day_shift!E4)</f>
-        <v/>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="49"/>
     </row>
     <row r="13" customFormat="1" spans="2:38">
       <c r="B13" s="16">
@@ -3888,20 +3870,11 @@
       </c>
       <c r="AH13" s="55"/>
       <c r="AI13" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ13" s="1" t="str">
-        <f>IF(_analysis_day_shift!F2="","",_analysis_day_shift!F2)</f>
-        <v/>
-      </c>
-      <c r="AK13" s="1" t="str">
-        <f>IF(_analysis_day_shift!F3="","",_analysis_day_shift!F3)</f>
-        <v/>
-      </c>
-      <c r="AL13" s="49" t="str">
-        <f>IF(_analysis_day_shift!F4="","",_analysis_day_shift!F4)</f>
-        <v/>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="49"/>
     </row>
     <row r="14" customFormat="1" spans="2:38">
       <c r="B14" s="16">
@@ -4033,20 +4006,11 @@
       </c>
       <c r="AH14" s="57"/>
       <c r="AI14" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ14" s="1" t="str">
-        <f>IF(_analysis_day_shift!G2="","",_analysis_day_shift!G2)</f>
-        <v/>
-      </c>
-      <c r="AK14" s="1" t="str">
-        <f>IF(_analysis_day_shift!G3="","",_analysis_day_shift!G3)</f>
-        <v/>
-      </c>
-      <c r="AL14" s="49" t="str">
-        <f>IF(_analysis_day_shift!G4="","",_analysis_day_shift!G4)</f>
-        <v/>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="49"/>
     </row>
     <row r="15" customFormat="1" spans="2:38">
       <c r="B15" s="16">
@@ -4177,23 +4141,14 @@
         <v/>
       </c>
       <c r="AH15" s="42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI15" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ15" s="1" t="str">
-        <f>IF(_analysis_day_shift!H2="","",_analysis_day_shift!H2)</f>
-        <v/>
-      </c>
-      <c r="AK15" s="1" t="str">
-        <f>IF(_analysis_day_shift!H3="","",_analysis_day_shift!H3)</f>
-        <v/>
-      </c>
-      <c r="AL15" s="49" t="str">
-        <f>IF(_analysis_day_shift!H4="","",_analysis_day_shift!H4)</f>
-        <v/>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="49"/>
     </row>
     <row r="16" customFormat="1" spans="2:38">
       <c r="B16" s="16">
@@ -4325,20 +4280,11 @@
       </c>
       <c r="AH16" s="42"/>
       <c r="AI16" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ16" s="1" t="str">
-        <f>IF(_analysis_day_shift!I2="","",_analysis_day_shift!I2)</f>
-        <v/>
-      </c>
-      <c r="AK16" s="1" t="str">
-        <f>IF(_analysis_day_shift!I3="","",_analysis_day_shift!I3)</f>
-        <v/>
-      </c>
-      <c r="AL16" s="49" t="str">
-        <f>IF(_analysis_day_shift!I4="","",_analysis_day_shift!I4)</f>
-        <v/>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="49"/>
     </row>
     <row r="17" customFormat="1" spans="2:38">
       <c r="B17" s="16">
@@ -4469,23 +4415,14 @@
         <v/>
       </c>
       <c r="AH17" s="58" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI17" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ17" s="1" t="str">
-        <f>IF(_analysis_day_shift!J2="","",_analysis_day_shift!J2)</f>
-        <v/>
-      </c>
-      <c r="AK17" s="1" t="str">
-        <f>IF(_analysis_day_shift!J3="","",_analysis_day_shift!J3)</f>
-        <v/>
-      </c>
-      <c r="AL17" s="49" t="str">
-        <f>IF(_analysis_day_shift!J4="","",_analysis_day_shift!J4)</f>
-        <v/>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="49"/>
     </row>
     <row r="18" customFormat="1" spans="2:38">
       <c r="B18" s="16">
@@ -4617,20 +4554,11 @@
       </c>
       <c r="AH18" s="58"/>
       <c r="AI18" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ18" s="1" t="str">
-        <f>IF(_analysis_day_shift!K2="","",_analysis_day_shift!K2)</f>
-        <v/>
-      </c>
-      <c r="AK18" s="1" t="str">
-        <f>IF(_analysis_day_shift!K3="","",_analysis_day_shift!K3)</f>
-        <v/>
-      </c>
-      <c r="AL18" s="49" t="str">
-        <f>IF(_analysis_day_shift!K4="","",_analysis_day_shift!K4)</f>
-        <v/>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="49"/>
     </row>
     <row r="19" customFormat="1" spans="2:38">
       <c r="B19" s="16">
@@ -6376,7 +6304,7 @@
     </row>
     <row r="32" customFormat="1" spans="2:38">
       <c r="B32" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -6417,7 +6345,7 @@
     </row>
     <row r="33" customFormat="1" spans="2:38">
       <c r="B33" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -6458,7 +6386,7 @@
     </row>
     <row r="34" customFormat="1" spans="2:38">
       <c r="B34" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -6499,7 +6427,7 @@
     </row>
     <row r="35" customFormat="1" ht="14.25" spans="2:38">
       <c r="B35" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -6540,7 +6468,7 @@
     </row>
     <row r="36" customFormat="1" ht="78.95" customHeight="1" spans="2:38">
       <c r="B36" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
@@ -6552,7 +6480,7 @@
       <c r="J36" s="21"/>
       <c r="K36" s="26"/>
       <c r="L36" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M36" s="27"/>
       <c r="N36" s="27"/>
@@ -6564,7 +6492,7 @@
       <c r="T36" s="27"/>
       <c r="U36" s="31"/>
       <c r="V36" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W36" s="27"/>
       <c r="X36" s="27"/>
@@ -6585,7 +6513,7 @@
     </row>
     <row r="37" ht="16.5" spans="2:38">
       <c r="B37" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
@@ -6597,7 +6525,7 @@
       <c r="J37" s="23"/>
       <c r="K37" s="28"/>
       <c r="L37" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M37" s="29"/>
       <c r="N37" s="29"/>
@@ -6609,7 +6537,7 @@
       <c r="T37" s="29"/>
       <c r="U37" s="32"/>
       <c r="V37" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="W37" s="29"/>
       <c r="X37" s="29"/>
@@ -6703,144 +6631,97 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:31">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="3:6">
-      <c r="C1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
